--- a/Resumen_Facturas_IDP.xlsx
+++ b/Resumen_Facturas_IDP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,53 +537,61 @@
           <t>match_debug</t>
         </is>
       </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>extraction_method</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0300600200457Cert.pdf</t>
+          <t>0916325990.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X:\Facts_Proveedor\0300600200457Cert.pdf</t>
+          <t>X:\Facts_Proveedor\0916325990.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-02-04T12:09:42</t>
+          <t>2026-01-27T23:30:07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84c428ef3e7c</t>
+          <t>70ab50adf71e</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A31012026</t>
+          <t>A28940740</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>JOFEG</t>
+          <t>916325990</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31/01/2026</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>026.02</t>
-        </is>
+          <t>27.01.2026</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>4169.02</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -591,57 +599,81 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C/ IMPRESORES, 22 - P.E PRADO DEL ESPINO 28660     BOADILLA DEL MONTE Madrid Factura JOFEG S.A. 31/01/2026 600200457 C/ IMPRESORES, 22 - P.E PRADO DEL ESPINO 28660     BOADILLA DEL MONTE Madrid Tel.: 916330298;    Fax:     Operación asegurada con:  CREDITO Y CAUCIÓN Importe % DTO. Precio Cantidad Descripción Ref.Proveedor Tel.: 916330298    Fax:   Client.: 91037 Num. Factura Fecha Hoja 1 CIF.: A28346245 AV.MAS VILA 130-132 (POLINGESA)   17457 RIUDELLOTS DE LA SELVA(Girona) Telf.: 972596855 Fax.: 972596850 info@egbgroup.com www.egbgroup.com JOFEG S.A. ALBARAN R-600200480 FECHA 22/01/2026 REF: PP/22376 87,18 64,00  12,109  20,00 ALRECRH321 CODO R.HEMBRA LATON R.EXT. 32-1" 43,53 64,00  12,092  10,00 ALREERM40114 ENLACE R.MACHO LATON R.EXT. 40-1.1/4" 104,41 64,00  19,336  15,00 ALREERM50112 ENLACE R.MACHO LATON R.EXT. 50-1.1/2" 17,00  17,000  1,00 TRANSPV TRANSPORTE  16,06 Pes (en Kg.):  21,00  252,12  52,95 TotalFactura Portes Imp.R.E. %R.E. Imp. IVA % IVA Base Imponible Importe bruto  252,12 305,07 € 305,07 ESCOFET GUICH I BUSQUETS, SA Reg.Merc.Girona, Full GI-33914, Foli 67, Tom 2029. Nº RPP ENV/2025/000054139 - C.I.F. A17773409 11/04/2026 Vencimientos: Forma de Pago:  TRANSF. A 60 DIES Entidad/Banco:   IBAN:  ES97 2100 8606 1202 0001 5242 Digitally signed by 40323208E JOSE ESCOFET GRAU (R: A17773409) Date: 2026.02.04 12:09:23 +01:00 Reason: E.G.B, S.A. Location: RIUDELLOTS DE LA SELVA </t>
+          <t xml:space="preserve">Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916325990 Fecha documento 27.01.2026 Nº pedido: 210758479 Fecha pedido: 01.01.2026 Código distribuidor: 24291960 Nº pedido cliente: Temporada PV 26 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347589756 Fecha entrega: 27.01.2026    800 1 6165-200-0012 RT 4097.1 SX Tractor cortacésped  Nº de serie:  980356980  Promoción  8862 TEMPORADAS 2026    2.395,87 1 UDS -24,00 1.820,86 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347589759 Fecha entrega: 27.01.2026    2900 6 WB21-011-3405 RM 248.3 (EU2) Cortador de relva  Referencia pedida: WB21-011-3400  Nº de serie:  451760762, 451760764, 451760772, 451760774 - 451760776  Promoción  8862 TEMPORADAS 2026    404,13 1 UDS -33,00 1.624,61 R3 Base Imponible: EUR 3.445,47 IVA: R3 21,0% EUR 723,55 Total: EUR 4.169,02          Peso total neto:  394,629 KG  Cond. pago:  1. plazo 25%, 31.03.2026 1.042,26 EUR  Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916325990 Fecha documento 27.01.2026 Código distribuidor: 24291960 Página 2 / 2   2. plazo 25%, 30.04.2026 1.042,26 EUR    3. plazo 25%, 31.05.2026 1.042,26 EUR </t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1408</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>2335</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>40000600</v>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>A31012026, 00200457C, 16330298F, A28346245, F97259685, R60020048, A22012026, P22376871, 21092000A, 20921000A, 93361500A, 17000100T, G21002521, 50730507E, V20250000, A17773409, 11042026V, S97210086, 00015242D, 40323208E, E20260204, 09230100R</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16325990F, 27012026N, 10758479F, 01012026C, R24291960, A24291960, A34758975, A27012026, 52000012R, E98035698, S20262395, S24001820, B21011340, E45176076, 51760776P, S20264041, S33001624, 26104226E, 18879801N, 27012026C, 26104224E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>3445.47</v>
+      </c>
+      <c r="V2" t="n">
+        <v>723.55</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>CLAUDE_API</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0916370346.pdf</t>
+          <t>0916325991.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X:\Facts_Proveedor\0916370346.pdf</t>
+          <t>X:\Facts_Proveedor\0916325991.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-02-04T23:01:58</t>
+          <t>2026-01-27T23:30:07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>954e6ab6ee61</t>
+          <t>d01680ab404e</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -657,18 +689,16 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>916325991</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12/01/26</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>04.02</t>
-        </is>
+          <t>27.01.2026</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>270.93</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -676,28 +706,26 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916370346 Fecha documento 04.02.2026 Nº albarán: 347661664 Fecha entrega: 04.02.2026 Nº pedido: 211304894 Fecha pedido: 15.01.2026 Código distribuidor: 24291960 Nº pedido cliente: 12/01/26 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 200 1 1148-200-0017 MS 172 35cm/14",63PM3  zorin 618096244    222,31 1 UDS -29,00 157,84 R3 Compuesto por: 201 1 1148-011-3020 MS 172 3/8"P Motosierra  Nº de serie:  840404535    202 1 3005-000-7409 Guía LP04 35cm/14" 1,3mm/0.050" 3/8"P 203 1 3636-000-0050 Cadena cortada 35 R 3/8" PM3 204 1 0000-792-9172 Protector de cadena 30 - 35 cm 3005 Base Imponible: EUR 157,84 IVA: R3 21,0% EUR 33,15 Total: EUR 190,99          Peso total neto:  5,131 KG  Cond. pago:  1 plazo 33%, 31.03.2026 63,66 EUR    2 plazo 33%, 30.04.2026 63,66 EUR    3 plazo 33%, 31.05.2026 63,67 EUR        Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916370346 Fecha documento 04.02.2026 Código distribuidor: 24291960 Página 2 / 2    El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como em</t>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916325991 Fecha documento 27.01.2026 Código distribuidor: 24291960 NIF ESA28346245 Página 1 / 6 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347596129 Fecha entrega: 27.01.2026            Nº pedido: 211251751 Fecha pedido: 05.01.2026            Nº pedido cliente: 02/01/26    300 1 BA04-011-5948 BGA 60 SET Soplador de acumulador  EXP  Nº de serie:  452044866    304,96 1 UDS -29,00 216,52 R3      Entrega: 347597747 Fecha entrega: 27.01.2026            Nº pedido: 211358059 Fecha pedido: 27.01.2026            Nº pedido cliente: 21/01/26    200 1 1121-120-1617 Filtro de aire MS 026 N.V.  JOTRINSA adrian    10,92 1 UDS -31,00 7,53 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960: 300 2 Z000-042-K001 Juego de palanca de estrangulamiento  target 615906082    5,42 1 UDS -31,00 7,48 R3 500 1 1121-120-0611 Carburador WT-426  JOTRINSA ADRIAN    103,14 1 UDS -31,00 71,17 R3 Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916325991 Fecha documento 27.01.2026 Código distribuidor: 24291960 Página 2 / 6 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 600 1 4930-500-090</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2044</v>
+        <v>8273</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>ANDREAS STIHL, S.A.</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>40000600</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>40000600</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -709,40 +737,50 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>A28940740, S76146590, 20928813T, 18879801J, 16370346F, 04022026N, N34766166, A04022026, 11304894F, 15012026C, R24291960, A28346245, A20011148, N61809624, S29001578, R20111148, E84040453, 50007409G, P20313636, 07929172P, 20266366E, 20266367E, 18879801N, 04022026C, D1102015C, D7102015C</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>5,131</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16325991F, 27012026C, R24291960, A24291960, A34759612, A27012026, 11251751F, 05012026N, E02012630, A04011594, E45204486, S29002165, A34759774, 11358059F, 27012026N, E21012620, 11201617F, S3100753R, S3100748R, 11200611C, S31007117, 18879801N, A60014930, S31001453, R37001113, 71201605F, S3100367R, 71200605C, S31004507, R31300163, 07007528C, S31001152, R31400163, 57040301T, A66472578, S3100361R, 29671501P, S3100214R, 21900303T, S31002870, A03350440, S31002012, R32300141, 26401400C, S31002343, N24002637, 57040311T, S31001044, R32500163, 57088000V, S3100273R, 07007510C, S3100901R, 41242800F, S3100503R, R33700149, 05000801M, R68750961, S31002087, R33800149, 05001305P, S31002236, R33900142, 90802105C, S31002751, R34000142, 97043400T, S31001032, A41001042, 91201800F, S31001429, R34200100, 03503522C, S3100331R, 03500534C, S3100559R, 03500536C, S3100485R, 71602001E, S31001254, R34600195, 29332270J, S3100403R, 56402010P, S31001124, R34800111, 56401700T, S31002401, R34900111, 00071004P, S31001262, A50001114, 11404400F, S3100552R, 03503518C, 04001307M, S31005396, R35300195, 29332260J, S3100374R, 06402000P, S31001289, R35500111, 01602001E, S31001831, R35600142, 36404506D, S31001340, R35800195, 30038058R, S3100524R, 96410400T, S3100382R, A60006950, 30039371R, S31003146, R36300148, 96000202M, S31005723, A34759942, 11359726F, E27012610, 47109005C, S31001400, 02636527E, 02636528E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>45.73</v>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>CLAUDE_API</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0991030641.pdf</t>
+          <t>0916325993.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X:\Facts_Proveedor\0991030641.pdf</t>
+          <t>X:\Facts_Proveedor\0916325993.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-30T17:37:20</t>
+          <t>2026-01-27T23:30:07</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>e8bda671029f</t>
+          <t>1a56ceb7d661</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -758,14 +796,16 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>pedido</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>9.732,03</t>
-        </is>
+          <t>916325993</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>27.01.2026</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>399.3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -773,28 +813,26 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nota de crédito revertida Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 991030641 Fecha documento 30.01.2026 Nº pedido: 803599543 Fecha pedido: 30.01.2026 Código distribuidor: 24291960 Nº pedido cliente: Abono Rappel Premium NIF ESA28346245 Página 1 / 1 Documento revertido 916342477 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 100 8043 0000-007-9044 Abono rappel             8.043,00 R3 Base Imponible: EUR 8.043,00 IVA: R3 21,0% EUR 1.689,03 Total: EUR 9.732,03             Rappel PREMIUM 2022           El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como empresa inscrita en el RII-PYA con N° 284.    </t>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916325993 Fecha documento 27.01.2026 Código distribuidor: 24291960 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347597464 Fecha entrega: 27.01.2026            Nº pedido: 211344492 Fecha pedido: 23.01.2026            Nº pedido cliente: Catálogos Europeos 2026    100 100 0421-070-7019 Catálogo Europeo ES sin impresión 1,65 1 UDS 165,00 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291962:       Entrega: 347597466 Fecha entrega: 27.01.2026            Nº pedido: 211344493 Fecha pedido: 23.01.2026            Nº pedido cliente: Catálogos Europeos 2026    100 100 0421-070-7019 Catálogo Europeo ES sin impresión 1,65 1 UDS 165,00 R3 Base Imponible: EUR 330,00 IVA: R3 21,0% EUR 69,30 Total: EUR 399,30          Peso total neto:  175,200 KG  Cond. pago:  1 plazo 33%, 28.02.2026 133,10 EUR    2 plazo 33%, 31.03.2026 133,10 EUR    3 plazo 33%, 30.04.2026 133,10 EUR           Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916325993 Fecha documento 27.01.2026 Código distribuidor: 24291960 Página 2 / 2 El importe de esta factura incluye la aportación para la correcta gestión de RII-AE</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1216</v>
+        <v>2201</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>ANDREAS STIHL, S.A.</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>40000600</t>
-        </is>
+      <c r="Q4" t="n">
+        <v>40000600</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -806,63 +844,75 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>A28940740, S76146590, 20928813T, 18879801J, 91030641F, 30012026N, 03599543F, 30012026C, R24291960, A28346245, 16342477R, A10080430, 00079044A, D1102015C, D7102015C</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16325993F, 27012026C, R24291960, A24291960, A34759746, A27012026, 11344492F, 23012026N, S20261001, 10707019C, A24291962, 11344493F, 02613310E, 18879801N, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>330</v>
+      </c>
+      <c r="V4" t="n">
+        <v>69.3</v>
+      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>CLAUDE_API</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>222260125463111-R002.PDF</t>
+          <t>0916333360.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X:\Facts_Proveedor\222260125463111-R002.PDF</t>
+          <t>X:\Facts_Proveedor\0916333360.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-02-04T18:48:04</t>
+          <t>2026-01-28T23:07:10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2e97252bf5d8</t>
+          <t>1efb1b09f5f6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>S6908174S</t>
+          <t>A28940740</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cion</t>
+          <t>916333360</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25/01/2026</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>399,98</t>
-        </is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>5465.79</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -877,77 +927,99 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  FACTURA  463111-R  JOFEG, S.A.  Fecha:  25/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660 BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  Tomo 43003, Folio 138, Hoja B-33280 , Inscripción 11  DESCRIPCION  ARTICULO  CANTIDAD  P.U.  DT1 DT2 IVA  IMPORTE  Nº Albaran:  PL244962  Fecha: 21/01/2026  PL244962  PROMO BLACK FRIDAY  75900003  330,56-  21,00  FRAS.8421 8600 8503  SU FACTURA :  531147-N  DE FECHA :  25/03/2025  De acuerdo con el Real Decreto RD1055/2022 (Envases con nuevas obligaciones los  envases industriales y comerciales) el comprador es responsable de la gestión  y eliminación de los residuos. Número de productor ENV/2023/000018123  Se realiza la contribución al SCRAP por los envases transferidos en esta factura  T.IVA  NETO  DTO  BASE  IVA  REC.EQUIV.  SUBTOTAL  330,56-  21,00  330,56-  330,56  69,42-  I.V.A  69,42-  399,98-  TOTAL  DATOS DE PAGO:  A DEDUCIR DE PROXIMAS FACTURAS  Banco o Caja  Banco sucursal  D.C C.Corriente  VALOR EN:  EUR  2100  2025  77  0200002956  Vencimiento: 21/02/2026  Observaciones.:  .  FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  FACTURA  463111-R  JOFEG, S.A.  Fecha:  25/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660  COPIA  BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08</t>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916333360 Fecha documento 28.01.2026 Nº albarán: 347601688 Fecha entrega: 28.01.2026 Nº pedido: 210758479 Fecha pedido: 01.01.2026 Código distribuidor: 24291960 Nº pedido cliente: Temporada PV 26 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 1200 6 6364-011-3441 RM 650.0 T  Referencia pedida: 6364-011-3442  Nº de serie:  452437621 - 452437626  Promoción  8862 TEMPORADAS 2026    759,50 1 UDS -33,00 3.053,19 R3 2400 2 WA21-011-1410 RMA 248.3 T (EU1) Cortacésped  Nº de serie:  452464806, 452464808  Promoción  8862 TEMPORADAS 2026    486,78 1 UDS -28,00 700,96 R3 3300 2 WB42-011-3400 RM 453.3 T (EU1) Cortador de relva  Nº de serie:  452236898, 452236899  Promoción  8862 TEMPORADAS 2026    569,42 1 UDS -33,00 763,03 R3 Base Imponible: EUR 4.517,18 IVA: R3 21,0% EUR 948,61 Total: EUR 5.465,79          Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916333360 Fecha documento 28.01.2026 Código distribuidor: 24291960 Página 2 / 2 Peso total neto:  406,500 KG  Cond. pago:  1. plazo 25%, 31.03.2026 1.366,45 EUR    2. plazo 25%, 30.04.2026 1.366,45 EUR    3. plazo 25%, 31.05.2026 1.366,45 EUR    4. plazo 25%, 30.06.2026 1.366,44 EUR           El importe de esta factura incluy</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2936</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+        <v>2251</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>40000600</v>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>S6908174S, 02423222F, 02946182E, S18008151, 01135114F, A25012026, A28346245, 22228660B, A08503930, A21012026, 30562100F, S84218600, A25032025, D10552022, V20230000, A69423999, R21002025, 00002956V</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>330,56</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16333360F, 28012026N, N34760168, A28012026, 10758479F, 01012026C, R24291960, A12006636, 40113441R, A63640113, E45243762, 52437626P, S20267595, S33003053, A21011141, E45246480, 52464808P, S20264867, S28007009, B42011340, E45223689, 52236899P, S20265694, S33007630, 18879801N, 28012026C, 26136645E, 26136644E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>4517.18</v>
+      </c>
+      <c r="V5" t="n">
+        <v>948.61</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>CLAUDE_API</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3026103910.PDF</t>
+          <t>0916333361.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X:\Facts_Proveedor\3026103910.PDF</t>
+          <t>X:\Facts_Proveedor\0916333361.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-29T23:33:32</t>
+          <t>2026-01-28T23:07:13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>c866fb2ba0cd</t>
+          <t>28b7e77312eb</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>S2228660B</t>
+          <t>A28940740</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>JOFEG</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>45.146</t>
-        </is>
+          <t>916333361</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1400.01</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -955,88 +1027,106 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>FACTURA  JOFEG S.A.  C.IMPRESORES,22  28660 BOADILLA DEL MONTE  Madrid Nº DOCUMENTO FECHA DOC. NºCLIENTE CADENA/SOCIO NºPROVEEDOR CLIENTE NIF CLIENTE HOJA -/- 3026103910 F.R.O.: 29.01.2026 29.01.2026 15287             EHLIS-26953 A28346245  1 /1 REMITIDO A Nº ALBARAN Nº PEDIDO CLIENTE Nº COPIAS  JOFEG S.A.  C/IMPRESORES S/N-URB.PRADO DEL ESPINO            28660 BOADILLA DEL MONTE 301321471 5748544 01 1 CODIGO ARTICULO/CONCEPTO CANTIDAD UNIT PRECIO U. CONDICIONES COMERCIALES IMPORTE NETO 504044   CEYS ULTRAUNICK LIQ 6G       12    5,37 30,00-%+18,00-%       36,99 504802   ESPUMAX AISLAR Y RELLENAR CANULA 750ML       12    8,66 30,00-%+14,00-%+20,00-%       50,05 505530   CEYS TRIPROTECT COC/BAÑ BLANCO CART       15    5,33 30,00-%+18,00-%+10,00-%       41,30 505531   CEYS TRIPROTECT COC/BAÑ TRANS CART       15    5,33 30,00-%+18,00-%+10,00-%       41,30 510110   ARALDITE STANDARD BLISTER 15+15ML_E        6    9,54 30,00-%+13,00-%       34,86 703211   PASO ELIMINA MOHO 500ML        6    5,36 30,00-%+18,00-%       18,46 705011   PASO DESATASCADOR GEL EXPRESS 1L       12    7,08 30,00-%+18,00-%       48,77 705012   PASO ELIMINA OLORES Y LIMPTUBERÍA1L        6   10,74 30,00-%+18,00-%       36,99 900904   CEYS PVC PRESIÓN-SANEAMIENTO 1L       12   16,47 30,00-%+14,00-%+10,00-%      107,08 900912   CEYS PVC TIXOTRÓPICO TAPÓN PINCEL 250ML       12    6,57 30,00-%+14,00-%+10,00-%       42,71 902813   AGUASTOP BANDA IMP. BUTILO TEJA 10CMX3M        6   12,44 30,00-%+14,00-%       44,93 902853   AGUASTOP CINTA EXTREMA TRANSPARENTE       12   12,75 30,00-%+14,00-%       92,11 Subtotal        595,55  Dto Cliente %   2,00-%  -11,91              Según la legislación vigente el poseedor final de los residuos de envases comerciales e industriales es el responsable de su correcta gestión. Registro productores de producto: REGAGE25e00030343978. PT.V/ENVA   3,22 € BASE % IVA/IGIC CUOTA     583,64  21,00      122,56 TOTAL DOCUMENTO       706,20 EUR   VIA DE PAGO Y VENCIMIENTO           I</t>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916333361 Fecha documento 28.01.2026 Código distribuidor: 24291960 NIF ESA28346245 Página 1 / 7 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347601691 Fecha entrega: 28.01.2026            Nº pedido: 211358059 Fecha pedido: 27.01.2026            Nº pedido cliente: 21/01/26    100 3 4243-740-5113 Acople cortasetos HL 145º 600 mm.  jose 630793524 GPOOL    329,75 1 UDS -31,00 682,58 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960: 400 10 3686-000-0067 Cadena cortada 40 R .325" RM 21,24 1 UDS -31,00 146,56 R3 900 1 4601-710-1504 Acople fresadora BF  fedir 678341880    230,58 1 UDS -31,00 159,10 R3 1100 1 0000-792-9177 Protector de cadena 63 cm.  CD ALEGRANZA 606783764    4,30 1 UDS -31,00 2,96 R3 1200 2 0000-792-9175 Protector de cadena 40 - 45 cm 3003  CD ALEGRANZA 606783764    3,55 1 UDS -31,00 4,90 R3 1900 1 6251-710-0202 Juego de cuchillas  157,85 1 UDS -31,00 108,91 R3 Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916333361 Fecha documento 28.01.2026 Código distribuidor: 24291960 Página 2 / 7 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA aco jardi</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2292</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+        <v>9702</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>40000600</v>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>S2228660B, A30261039, 02615287E, A28346245, E30132147, 48544011C, G12537300, 99504802E, 05505530C, 30505531C, 30510110A, E69543000, 86703211P, 46705011P, 77705012P, 99900904C, 08900912C, 71902813A, 93902853A, E12127530, 14009211S, E2001191S, E00030343, A58364210, 11042026B, A08147191</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>595,55</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>583,64</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr"/>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16333361F, 28012026C, R24291960, A24291960, A34760169, A28012026, 11358059F, 27012026N, E21012610, 37405113A, E63079352, S31006825, 60000067C, S31001465, R39001460, 17101504A, R67834188, S31001591, R31100100, 07929177P, A60678376, S3100296R, 07929175P, S3100490R, 17100202J, S31001089, 18879801N, N63643495, 17100203J, A01011691, E94373587, S29009916, R32800123, 00000044C, S31001108, R32900103, 00000050C, S31001066, R33300436, 20000050C, S31001300, R33400103, 00000064C, S31001180, R33500436, 00002871P, S31002076, R36200103, 00005771P, S31001049, A64001424, 10110932S, E19831595, S29002869, R36500141, 42000016K, E54676731, S29001989, R36600146, 17405000B, S31001847, A03200002, S29002957, A03011581, E45232424, 50004413G, P67031369, 00005561P, A67041000, 07929173P, 11359726F, E27012630, 82000002M, S29005985, R30151148, E84052824, 50084909G, C33045000, 07929172P, 30054001G, A01820500, A2659921U, S31004134, A34760275, 30005231G, S31009922, 47000400R, A66472578, S31001198, R31800104, 21410300F, S31006700, R33000142, 87106051J, S31004361, A31001423, 07105900J, S31005189, R35700142, 37106003C, S31004847, R36100103, 00006571P, S31001197, E27012620, 90000067C, A34760578, 11323863F, 20012026N, 22000022B, E54891987, S33001858, A34760579, 11278228F, 09012026N, 40111635B, S24001166, A54759314, 48699515E, A24291962, A34760267, 11357905F, 57734006L, S31002882, 24007001B, S31002056, R35001000, 04007000B, 00001640R, S31002959, R33001361, 60001640R, S31003335, 26315777E, 26315785E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>1157.86</v>
+      </c>
+      <c r="V6" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>CLAUDE_API</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3026104579.PDF</t>
+          <t>Factura venta VE 260197.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>X:\Facts_Proveedor\3026104579.PDF</t>
+          <t>X:\Facts_Proveedor\Factura venta VE 260197.pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-02-02T10:21:29</t>
+          <t>2026-01-28T10:42:10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4a7775780e13</t>
+          <t>48352b9e22d4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>S2228660B</t>
+          <t>B78530425</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>JOFEG</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>45.146</t>
-        </is>
+          <t>VE 260197</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>28/01/2026</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1649.31</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1051,38 +1141,826 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">FACTURA  JOFEG S.A.  C.IMPRESORES,22  28660 BOADILLA DEL MONTE  Madrid Nº DOCUMENTO FECHA DOC. NºCLIENTE CADENA/SOCIO NºPROVEEDOR CLIENTE NIF CLIENTE HOJA -/- 3026104579 F.R.O.: 31.01.2026 31.01.2026 15287             EHLIS-26953 A28346245  1 /1 REMITIDO A Nº ALBARAN Nº PEDIDO CLIENTE Nº COPIAS  JOFEG S.A.  C/IMPRESORES S/N-URB.PRADO DEL ESPINO            28660 BOADILLA DEL MONTE 301322773 5748544 01 1 CODIGO ARTICULO/CONCEPTO CANTIDAD UNIT PRECIO U. CONDICIONES COMERCIALES IMPORTE NETO 900913   CEYS PVC TIXOTRÓPICO TAPÓN PINCEL 500ML       12   11,32 30,00-%+14,00-%+10,00-%       73,60 Subtotal         73,60  Dto Cliente %   2,00-%  -1,47              Según la legislación vigente el poseedor final de los residuos de envases comerciales e industriales es el responsable de su correcta gestión. Registro productores de producto: REGAGE25e00030343978. PT.V/ENVA   0,44 € BASE % IVA/IGIC CUOTA      72,13  21,00       15,15 TOTAL DOCUMENTO        87,28 EUR   VIA DE PAGO Y VENCIMIENTO           IMPORTE  Reposiciones A 60 DIAS COBRO DIAS 11 Y 21     11.04.2026                                                                                                                               BANCO: NºCTA. Registro Mercantil de Barcelona, Tomo 22.904, Folio 20, Hoja B-45.146, NIF. A-08147191 </t>
+          <t xml:space="preserve">260197 28/01/2026 281 Nº FACTURA: FECHA: VE Importe %IVA Precio Descripción Cantidad Pág. 1 P.I. Prado del Espino C/. Impresores JOFEG, S.A. Refer. 28660-BOADILLA DEL MONTE (MADRID) A28346245 Albarán nº 260270 de fecha 23/01/2026, Nº de pedido PP/22386 10 5004-PLUS-FC, ASPERSOR CIRCULAR 60,00 21,00 27,2200 108,88 J2236 10 5000 PLUS SAM KIT 60,00 21,00 13,4800 53,92 J2263 2 HOLDUPTOOL (232693S) 60,00 21,00 16,3400 13,07 J2298 26 RD-04-S-P45F, DIFUSOR 1804 60,00 21,00 18,0000 187,20 J2384-1 80 5004-PLUS PC SAM, ASPERSOR SECTORIAL 21,00 12,5000 1.000,00 J2236-1 Base Imp. IVA %IVA Total Total 1.649,31 € 286,24 1.649,31 Vencimientos: 1.363,07 21,00 11/04/26 1.649,31 CONFIRMING 60 DIAS Conforme a lo establecido en la Ley Orgánica 15/1999 de 13 de Diciembre de Protección de Datos de Carácter Personal (LOPD), le informamos que sus datos personales son confidenciales y  forman parte de los ficheros titularidad de RIEGO TURF, S.L., registrados en la Agencia Española de Protección de Datos, con la finalidad de cumplir con nuestras obligaciones de facturación, así  como proporcionarle información referente a nuestros productos y servicios. Puede ejercer sus derechos de acceso, rectificación, cancelación y oposición, en los términos contemplados en la  legislación vigente dirigiéndose por escrito a nuestras oficinas en C/ METAL, 14 P.I..SAN JOSE DE VALDERAS.  IBAN : RiegoTurf, S.L. - C /Metal, 14 Pol. San José de Valderas - 28918 - Leganés (Madrid) - CIF: B-78530425 - Telf: 916418131 - Email: info@riegoturf.com                                                                                   Registro Mercantil de Madrid, Hoja M-82461, Folio 145 ,Tomo 5023 , Secc.8ª, Libro 0 General, Inscripción 11-02-93 </t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1295</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+        <v>1720</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>RIEGO TURF, S.L.</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>40001036</v>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>100</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>12026281N, A23012026, P22386105, R60002100, 20010888J, 36105000P, 48005392J, S60002100, 34001307J, R18046000, 00018720J, 41805004P, 00100000J, 24164931V, S13630721, 26164931C, B78530425, F91641813</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>1363.07</v>
+      </c>
+      <c r="V7" t="n">
+        <v>286.24</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>...918 - Leganés (Madrid) - CIF: B-78530425 - Telf: 916418131 - Email: in...</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>CLAUDE_API</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Factura_5060628928_20260128.PDF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060628928_20260128.PDF</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-01-28T00:59:09</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31514f1df3c8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B84072032</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5060628928</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1606.99</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Factura n° 5060628928 Página 1 / 2 Fecha 28.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente PED_WAPP_ALFREDO_230 Fecha de pedido cliente 23.01.2026 Confirmación de pedido n° 0053447739 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4933492663 M18FOPHLTKIT2-0 POWE 1 U.    437,90 / 1 R HEAD XXX 84672920 4058546414139 7,004 KG CN Precio 437,90 Dto. Base 25% -109,48 Precio neto 328,42 Nota de Entrega n° 0103471948 fecha 27.01.2026, Ref. del ped. cliente PED_WAPP_ALFREDO_23012026 fecha     20 4933480868 M18FTPS30-0 TELESCOP 1 U.    699,90 / 1  POLE SAW 30CM XXX 84672210 4058546411534 10,454 KG CN Precio 699,90 Dto. Base 25% -174,98 Precio neto 524,92 Nota de Entrega n° 0103471948 fecha 27.01.2026, Ref. del ped. cliente PED_WAPP_ALFREDO_23012026 fecha     30 4933498384 M18FHET60G2-0 RECORT 1 U.    369,90 / 1 ASETOS XXX 84672920 4058546522537 7,434 KG CN Precio 369,90 Dto. Base 25% -92,48 Precio neto 277,42 Nota de Entrega n° 0103471948 fecha 27.01.2026, Ref. del ped. cliente PED_WAPP_ALFREDO_23012026 fecha Página 2 / 2 Factura n° 5060628928 Techtronic Industries Iberia S.L Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 2</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>2951</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>40001020</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>100</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>N50606289, A28012026, E04000540, E23012026, N00534477, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, 41397004K, E2510948P, N01034719, A27012026, 23012026F, A20493348, 53410454K, E2517498P, A30493349, 25377434K, E40493249, U33690128, 42034536K</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>1383.43</v>
+      </c>
+      <c r="V8" t="n">
+        <v>223.55</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>CLAUDE_API</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FVA26-906.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\FVA26-906.pdf</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-27T13:43:13</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>627db3f20d62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>F43389675</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>FVA26/906</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>26/01/26</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>-50.14</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Forma de Pagament/Forma de Pago: TRANSFERENCIA 60 DIAS Venciments / Vencimientos: 11/04/2026        -50,14 € ESTE ABONO SE LE DESCONT. DE LA FACT. Nº                                DE                       -                          =                          € ELEKTRO3 S.C.C.L. CIF: F43389675 POL. IND. ALBA BARENYS, 21 43480 VILA-SECA TARRAGONA www.elektro3.com elektro3@elektro3.com Telf. 977.792.945 Fax. 977.792.932 Nº Factura Data/Fecha Client/Cliente CIF: A28346245 Asesor Asesor de ventas Pag. FVA26/906 26/01/26 430021328 Tlf: 916.330.298 220-1 220 ALBERTO FERNANDEZ MOYANO  1 JOFEG S.A. Asociado: POL. IND. PRADO DEL ESPINO - CALLE IMPRESORES, Nº22  28660 BOADILLA DEL MONTE MADRID Total D.C. Bases % R.E. R.E. -41,44 0,00 0,00 0,00 -41,44 21,00 -8,70 R.A.E. D.P.P. I.V.A. Total IVA Ref. EAN Article/Artículo Ut./Ud. Precio Dto. Imp. Dto. % Iva Total 00000003 ****** ABONO ****** 1 21 21255 6914280015415 TIJERA RECTA DE HOJALATERO 300 mm -2 6,5008 21 -13,00 99553 8711252418063 AMBIENTADOR PARA REJILLA DE CLIMATIZADOR DE COCHE DUNLOP  COLORES / MODELOS SURTIDOS -18 1,5800 21 -28,44 Pedido: ABF/18211 de fecha 21/01/2026 0 Observacions/Observaciones: ESTE ABONO CORRESPONDE A LA FACTURA F25/138281 - F25/103120 Nº Bultos: Kgs: Nº Ref: TOTAL FACTURA -50,14 € Conforme a lo establecido en la Ley Orgánica 15/1999, de Protección de Datos de Carácter Personal (LOPD), le informamos que los datos personales proporcionados son confidenciales y forman parte de los ficheros de titularidad de  , con la finalidad de agilizar nuestra gestión y servicio, así como proporcionarle información referente a  nuestros productos y servicios, salvo que nos manifieste lo contrario. Puede ejercer sus derechos de acceso, cancelación, rectificación y en su caso, oposición, enviando un escrito acompañando una fotocopia del D.N.I. a la siguiente dirección:        . ELEKTRO3 S.C.C.L. POL. IND. ALBA BARENYS, 21 43480 VILA-SECA TARRAGONA TODAS LAS RECLAMACIONES SOBRE EL CONTENIDO DE LA ENTREGA NO SE PODRÁ</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>2413</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>ELEKTRO3 S.C.C.L.</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>40000982</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>100</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>S11042026, F43389675, S2143480V, F97779294, 77792932N, A26906260, 30021328T, F91633029, 82201220A, N2228660B, E41440000, 42100870R, 00000003A, 80015415T, 52418063A, S18158002, A21012026, F25138281, F25103120</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>-41.44</v>
+      </c>
+      <c r="V9" t="n">
+        <v>21</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>...     € ELEKTRO3 S.C.C.L. CIF: F43389675 POL. IND. ALBA BARENYS, 21 43...</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>CLAUDE_API</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>222260125676011-N002.PDF</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\222260125676011-N002.PDF</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2026-01-26T18:04:24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7061fcb57d26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NO_MATCH</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>S6908174S</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>cion</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>55,54</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  676011-N  JOFEG, S.A.  Fecha:  25/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660 BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  EP2569 PP22354 DIC  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  Tomo 43003, Folio 138, Hoja B-33280 , Inscripción 11  DESCRIPCION  ARTICULO  CANTIDAD  P.U.  DT1 DT2 IVA  IMPORTE  Nº Albaran:  JA155160  Fecha: 19/01/2026  CEPILLO DE PARED 44CM  77488  10 UN  10,0000 A02 55,0  38,25  21,00  15,0  FORMA DE PAGO O9 DEL ASS AUTORIZADA POR HÉCTOR  ASENSIO. ENTREGA INMEDIATA  Nº Albaran:  JA155161  Fecha: 19/01/2026  CEPILLO DE PARED 44CM  77488  2 UN  10,0000 A02 55,0  7,65  21,00  15,0  FORMA DE PAGO O9 DEL ASS AUTORIZADA POR HÉCTOR  ASENSIO. ENTREGA INMEDIATA  De acuerdo con el Real Decreto RD1055/2022 (Envases con nuevas obligaciones los  envases industriales y comerciales) el comprador es responsable de la gestión  y eliminación de los residuos. Número de productor ENV/2023/000018123  Se realiza la contribución al SCRAP por los envases transferidos en esta factura  T.IVA  NETO  DTO  BASE  IVA  REC.EQUIV.  SUBTOTAL  45,90  21,00  45,90  45,90  9,64  I.V.A  9,64  55,54  TOTAL  DATOS DE PAGO:  CONFIRMING 90/120/150/180  Banco o Caja  Banco sucursal  D.C C.Corriente  VALOR EN:  EUR  2100  2025  77  0200002956  21/07/2026  21/06/2026  Vencimiento: 21/05/2026  21/08/2026  Observaciones.:  .  FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  676011-N  JOFEG, S.A.  Fecha:  25/01/2026  C/ IMPRESORES, 22</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>3462</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S10" t="n">
         <v>0</v>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>S2228660B, A30261045, 02615287E, A28346245, E30132277, 48544011C, 10007360S, E00030343, A72132100, 11042026B, A08147191</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>73,60</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>72,13</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>S6908174S, 02423222F, 02946182E, S18008151, 01135114F, A25012026, A08503930, A19012026, A02550382, 52100150F, A02550765, D10552022, V20230000, A9645554T, G90120150, R21002025, 21062026V</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>45,90</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Factura de clientes_261001136_20260128_081434.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura de clientes_261001136_20260128_081434.pdf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2026-01-28T08:38:20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>788c2eb65c7c</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NO_MATCH</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A26100113</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>261001136</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>26/01/2026</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>783,98</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOFEG, S.A. IMPRESORES,22 URB PRADO ESPINO BOADILLA DEL MONTE 28660 MADRID SPAIN Fecha Doc.: ▌FACTURA   261001136 JOFEG, S.A. IMPRESORES,22 URB PRADO ESPINO BOADILLA DEL MONTE 28660 MADRID SPAIN Cód. Cliente: Ref.Cliente: PP/22381 Dirección de envío: Dirección fiscal: 26/01/2026 info@prestoiberica.com Telf.: 915782575  Fax: 915783522 PRINCIPE DE VERGARA, 13 2º D MADRID  28001 - (MADRID) C0100527 - JOFEG, S.A. PRESTO IBÉRICA, S.A. CIF: ESA28346245  ESA28576197 Cód. Descripción Cant. Importe Precio %Desc. %IVA Observaciones:  Albarán Nro.: 261001451  Ref.: PP/22381    Fecha : 26/01/2026 Entregado en: 003 - JOFEG, S.A.IMPRESORES,22 URB PRADO ESPINO BOADILLA DEL MONTE 28660 MADRID SPAIN  647,92 0102PA-14109  249,20 5,00 PRESTO 1000 M (PACK 3 UDS)  PA-14109  48,00  21,00 TOTAL  647,92 Subtotal Agencia Transporte PORTES PAGADOS Incoterm %Impuesto Base Imponible Importe  136,06  647,92 IVA 21% Total cuota  136,06  647,92  783,98 Total    EUR Forma de pago Vencimientos EUR 20/03/2026  783,98 Operación asegurada por CESCE Confirming Cliente (Transferencia) BANCO BILBAO VIZCAYA ARGENTARIA, S.A. IBAN: ES2701825502520200009492 BIC: BBVAESMMXXX En virtud de lo dispuesto en el Reglamento (UE) 2016/679 de Protección de Datos (Reglamento General de Protección de Datos), le informamos que los datos de carácter personal recabados a través del presente formulario serán tratados por PRESTO IBERICA S.A., con CIF A28576197 y domicilio social en CL. PRINCIPE DE VERGARA, 13 - 28001 MADRID (Madrid), con el fin de proceder a la ejecución de la relación contractual suscrita, así como para la gestión de las obligaciones fiscales, contables y administrativas que se deriven de la misma. El tratamiento de sus datos estará legitimado por la ejecución de la relación contractual suscrita con PRESTO IBERICA, S.A., así como de las obligaciones legales que se deriven de la misma. Sus datos no serán cedidos a terceros salvo que resulte necesario para el cumplimiento de una obligación legal. En cuanto a </t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>2607</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>A26100113, F91578257, 15783522P, C0100527J, A28576197, 61001451R, A26012026, N64792010, A14109249, A14109480, E13606647, A13606647, R20032026, S27018255, 00009492B, E2016679D, A1328001M, V20230000, 10552022D</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>136,06</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>...DRID SPAIN Fecha Doc.: ▌FACTURA   261001136 JOFEG, S.A. IMPRESORES,22 UR...</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Factura_5060628929_20260128.PDF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060628929_20260128.PDF</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-28T00:59:25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>916bc262ae7c</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NO_MATCH</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N50606289</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Factura n° 5060628929 Página 1 / 2 Fecha 28.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente PED_WAPP_ALFREDO_230 Fecha de pedido cliente 23.01.2026 Confirmación de pedido n° 0053447739 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4933499229 M18F2BL-802 DUAL BAT 1 U.    809,90 / 1 TERY BLOWER IN2 84145925 4058546563936 11,640 KG CN Precio 809,90 Dto. Base 25% -202,48 Precio neto 607,42 Ecopila 1,19 Nota de Entrega n° 0103471949 fecha 27.01.2026, Ref. del ped. cliente PED_WAPP_ALFREDO_23012026 fecha     20 4931411742 BOLSA MILWAUKEE XL 1 U.     37,90 / 1 42029298 4002395899081 1,140 KG CN Precio 37,90 Dto. Base 25% -9,48 Descuento Espec. 100% -28,42 Precio neto 0,00 Nota de Entrega n° 0103471949 fecha 27.01.2026, Ref. del ped. cliente PED_WAPP_ALFREDO_23012026 fecha     30 4932492131 M18FB8 BATERIA XXX 3 U.    238,90 / 1 85076000 4058546414986 3,618 KG CN Precio 716,70 Dto. Base 25% -179,18 Descuento Espec. 100% -537,52 Precio neto 0,00 Nota de Entrega n° 0103471949 fecha 27.01.2026, Ref. del ped. cliente PED_WAPP_ALFREDO_23012026 fecha Página 2 / 2 Factura n° 5060628929 Techtronic Industries Iberia S.L Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Indu</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>2655</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>N50606289, A28012026, E04000540, E23012026, N00534477, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, N28414592, 93611640K, E2520248P, N01034719, A27012026, 23012026F, A20493141, U37901420, 90811140K, C1002842P, A30493249, U23890185, 49863618K, E2517918D, C10053752</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>607,42</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Factura_5060628930_20260128.PDF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060628930_20260128.PDF</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2026-01-28T00:59:09</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6d74496c9800</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NO_MATCH</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N50606289</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura n° 5060628930 Página 1 / 1 Fecha 28.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente PED_MAIL_OCEAN_26012 Fecha de pedido cliente 26.01.2026 Confirmación de pedido n° 0053458305 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4932492651 M18FB12 BATERIA XXX 4 U.    298,90 / 1 85076000 4058546414016 6,520 KG CN Precio 1.195,60 Dto. Base 25% -298,90 Descuento Espec. 100% -896,70 Precio neto 0,00 Nota de Entrega n° 0103482149 fecha 27.01.2026, Ref. del ped. cliente PED_MAIL_OCEAN_26012026 fecha 26     20 4932492131 M18FB8 BATERIA XXX 2 U.    238,90 / 1 85076000 4058546414986 2,412 KG CN Precio 477,80 Dto. Base 25% -119,45 Descuento Espec. 100% -358,35 Precio neto 0,00 Nota de Entrega n° 0103482149 fecha 27.01.2026, Ref. del ped. cliente PED_MAIL_OCEAN_26012026 fecha 26 Neto antes impuestos EUR 0,10 IVA 21% EUR 0,02 Total IVA incl. EUR 0,12 Condiciones de pago 30 días fecha factura Incoterms DAP BOHADILLA DEL MONTE Fecha de vencimiento: 28.02.2026  </t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1713</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>N50606289, A28012026, E04000540, E26012026, N00534583, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493249, U29890185, 40166520K, E2529890D, C10089670, N01034821, A27012026, N26012026, A26204932, U23890185, 49862412K, E2511945D, C10035835</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Factura_5060629312_20260129.PDF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060629312_20260129.PDF</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2026-01-29T01:58:58</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>363d69177f6a</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NO_MATCH</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N50606293</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura n° 5060629312 Página 1 / 1 Fecha 29.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente PED_WAPP_ALFREDO2_23 Fecha de pedido cliente 23.01.2026 Confirmación de pedido n° 0053447730 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4933499227 M18FTPS30-121 TELESC 1 U.    999,90 / 1 OP POLE SAW 30CM IN2 84672210 4058546563912 14,310 KG CN Precio 999,90 Dto. Base 25% -249,98 Precio neto 749,92 Ecopila 0,82 Nota de Entrega n° 0103471946 fecha 28.01.2026, Ref. del ped. cliente PED_WAPP_ALFREDO2_23012026 fecha     20 4932492651 M18FB12 BATERIA XXX 3 U.    298,90 / 1 85076000 4058546414016 4,890 KG CN Precio 896,70 Dto. Base 25% -224,18 Descuento Espec. 100% -672,52 Precio neto 0,00 Nota de Entrega n° 0103471946 fecha 28.01.2026, Ref. del ped. cliente PED_WAPP_ALFREDO2_23012026 fecha Total antes impuestos EUR 749,92 Ecopila EUR 0,82 Neto antes impuestos EUR 750,74 IVA 21% EUR 157,66 Total IVA incl. EUR 908,40 Condiciones de pago 30 días fecha factura Incoterms DAP BOHADILLA DEL MONTE Fecha de vencimiento: 28.02.2026  </t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>1776</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>N50606293, A29012026, E04000540, E23012026, N00534477, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, N28467221, 91214310K, E2524998P, N01034719, A28012026, 23012026F, A20493249, U29890185, 40164890K, E2522418D, C10067252</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>749,92</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Factura_5060629313_20260129.PDF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060629313_20260129.PDF</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2026-01-29T01:59:20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>181bcc8b6d79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NO_MATCH</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N50606293</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Factura n° 5060629313 Página 1 / 10 Fecha 29.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente 27ene26 JOFEG Fecha de pedido cliente 27.01.2026 Confirmación de pedido n° 0053467547 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4933492646 M18BLSAG125XPD-402X 2 U.    414,90 / 1 AMOL. ANG. 125MM M18 84672920 4058546413965 13,580 KG VN Precio 829,80 Dto. Base 25% -207,45 Precio neto 622,35 Ecopila 1,56 Nota de Entrega n° 0103494155 fecha 28.01.2026, Ref. del ped. cliente 27ene26 JOFEG fecha 27.01.2026     20 4932430483 M18B5 BATERÍA 5AH M1 2 U.    114,90 / 1 8 85076000 4002395381449 1,560 KG CN Precio 229,80 Dto. Base 25% -57,45 Descuento Espec. 100% -172,35 Precio neto 0,00 Nota de Entrega n° 0103494155 fecha 28.01.2026, Ref. del ped. cliente 27ene26 JOFEG fecha 27.01.2026     30 4932471417 GUANTES ANTICORTE A 2 U.      3,05 / 1 - L/9 - 1 PAR 61161020 4058546290450 0,136 KG CN Precio 6,10 Dto. Base 30% -1,83 Precio neto 4,27 Nota de Entrega n° 0103494155 fecha 28.01.2026, Ref. del ped. cliente 27ene26 JOFEG fecha 27.01.2026 Página 2 / 10 Factura n° 5060629313 Techtronic Industries Iberia S.L Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, S</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>18677</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>N50606293, A29012026, E04000540, E27012026, N00534675, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, 96513580K, E2520745P, N01034941, A28012026, A27012026, 32430483M, U11490188, 14491560K, C10017235, 32471417G, R61161020, 04500136K, E40493247, S68042218, 28050778K, 32493433L, C90049010, 30430194K, 33459729M, 90125380K, 33440493M, 03579080K, E2511795P, 33500564M, 86674202K, E90493347, 87912752K, 33492821M, 69223460K, 33472238M, 63402100K, 33433630A, 42316248K, 33451220A, 08746558K, E14049324, 14492340K, C10025852, 49560062C, 29770080K, 49560159C, 10300660K, 32471104B, 73200102K, 32471107B, 73510230K, 32493871M, A82075090, 03121134K, 32352346B, S82075060, 00540020K, 32352347B, 00610030K, 32352348B, 00780030K, E23049323, 00850040K, 32352350B, 00920020K, 32352351B, 01080039K, 32352352B, 01150032K, 32352358B, 01770080K, 32352361B, 02070060K, 32352363B, 02210160K, 32352367B, U6901100X, 02690335K, 32352371B, U10801120, 03060404K, E32049323, U11301130, 03200212K, 32480177C, 46280800K, 32492005E, E82079030, 37291320K, 32492007E, 37432250K, E5510115D, 32471781D, 68030666K, 32471773D, 67280324K, 32471787D, 68650324K, 32343735S, 75162160K, 32339626S, 48200996K, 32367146S, 43770558K, 49472211J, E82029980, 19580680K</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>622,35</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resumen_Facturas_IDP.xlsx
+++ b/Resumen_Facturas_IDP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,18 +1427,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S6908174S</t>
+          <t>A08503930</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cion</t>
+          <t>676011-N</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1470,15 +1470,21 @@
       <c r="O10" t="n">
         <v>3462</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPA¤A S.A.U</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>40008052</v>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1490,11 +1496,19 @@
           <t>45,90</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>9,64</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>...COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  To...</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>REGEX</t>
+          <t>TEMPLATE</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr"/>
@@ -1522,13 +1536,13 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A26100113</t>
+          <t>A28576197</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1565,15 +1579,21 @@
       <c r="O11" t="n">
         <v>2607</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>PRESTO IBERICA, S.A.</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>40000510</v>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1588,7 +1608,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>...DRID SPAIN Fecha Doc.: ▌FACTURA   261001136 JOFEG, S.A. IMPRESORES,22 UR...</t>
+          <t>...ICA, S.A. CIF: ESA28346245  ESA28576197 Cód. Descripción Cant. Import...</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1621,24 +1641,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N50606289</t>
+          <t>B84072032</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Factura n° 5060628929</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>6,70
+9,18</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1660,15 +1685,21 @@
       <c r="O12" t="n">
         <v>2655</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>40001020</v>
+      </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1680,11 +1711,19 @@
           <t>607,42</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>6,70</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>REGEX</t>
+          <t>TEMPLATE</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr"/>
@@ -1712,24 +1751,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N50606289</t>
+          <t>B84072032</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>Factura n° 5060628930</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>28.01.2026</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>0,02
+0,12</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1751,15 +1795,21 @@
       <c r="O13" t="n">
         <v>1713</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>40001020</v>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1768,14 +1818,23 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+          <t>0,10</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0,10
+0,02</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>REGEX</t>
+          <t>TEMPLATE</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr"/>
@@ -1803,24 +1862,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N50606293</t>
+          <t>B84072032</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Factura n° 5060629312</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>29.01.2026</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>0,82
+0,74</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1842,15 +1906,21 @@
       <c r="O14" t="n">
         <v>1776</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>40001020</v>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CIF</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1859,14 +1929,23 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>749,92</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+          <t>9,92</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>9,92
+0,82</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>REGEX</t>
+          <t>TEMPLATE</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr"/>
@@ -1894,24 +1973,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NO_MATCH</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N50606293</t>
+          <t>B84072032</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Factura n° 5060629313</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>29.01.2026</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>6,10
+1,83</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1933,34 +2017,5804 @@
       <c r="O15" t="n">
         <v>18677</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>40001020</v>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>100</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>N50606293, A29012026, E04000540, E27012026, N00534675, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, 96513580K, E2520745P, N01034941, A28012026, A27012026, 32430483M, U11490188, 14491560K, C10017235, 32471417G, R61161020, 04500136K, E40493247, S68042218, 28050778K, 32493433L, C90049010, 30430194K, 33459729M, 90125380K, 33440493M, 03579080K, E2511795P, 33500564M, 86674202K, E90493347, 87912752K, 33492821M, 69223460K, 33472238M, 63402100K, 33433630A, 42316248K, 33451220A, 08746558K, E14049324, 14492340K, C10025852, 49560062C, 29770080K, 49560159C, 10300660K, 32471104B, 73200102K, 32471107B, 73510230K, 32493871M, A82075090, 03121134K, 32352346B, S82075060, 00540020K, 32352347B, 00610030K, 32352348B, 00780030K, E23049323, 00850040K, 32352350B, 00920020K, 32352351B, 01080039K, 32352352B, 01150032K, 32352358B, 01770080K, 32352361B, 02070060K, 32352363B, 02210160K, 32352367B, U6901100X, 02690335K, 32352371B, U10801120, 03060404K, E32049323, U11301130, 03200212K, 32480177C, 46280800K, 32492005E, E82079030, 37291320K, 32492007E, 37432250K, E5510115D, 32471781D, 68030666K, 32471773D, 67280324K, 32471787D, 68650324K, 32343735S, 75162160K, 32339626S, 48200996K, 32367146S, 43770558K, 49472211J, E82029980, 19580680K</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>622,35</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>6,10</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0300600200457Cert.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0300600200457Cert.pdf</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-02-04T12:09:42</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>84c428ef3e7c</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>A17773409</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>JOFEG</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>026.02</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C/ IMPRESORES, 22 - P.E PRADO DEL ESPINO 28660     BOADILLA DEL MONTE Madrid Factura JOFEG S.A. 31/01/2026 600200457 C/ IMPRESORES, 22 - P.E PRADO DEL ESPINO 28660     BOADILLA DEL MONTE Madrid Tel.: 916330298;    Fax:     Operación asegurada con:  CREDITO Y CAUCIÓN Importe % DTO. Precio Cantidad Descripción Ref.Proveedor Tel.: 916330298    Fax:   Client.: 91037 Num. Factura Fecha Hoja 1 CIF.: A28346245 AV.MAS VILA 130-132 (POLINGESA)   17457 RIUDELLOTS DE LA SELVA(Girona) Telf.: 972596855 Fax.: 972596850 info@egbgroup.com www.egbgroup.com JOFEG S.A. ALBARAN R-600200480 FECHA 22/01/2026 REF: PP/22376 87,18 64,00  12,109  20,00 ALRECRH321 CODO R.HEMBRA LATON R.EXT. 32-1" 43,53 64,00  12,092  10,00 ALREERM40114 ENLACE R.MACHO LATON R.EXT. 40-1.1/4" 104,41 64,00  19,336  15,00 ALREERM50112 ENLACE R.MACHO LATON R.EXT. 50-1.1/2" 17,00  17,000  1,00 TRANSPV TRANSPORTE  16,06 Pes (en Kg.):  21,00  252,12  52,95 TotalFactura Portes Imp.R.E. %R.E. Imp. IVA % IVA Base Imponible Importe bruto  252,12 305,07 € 305,07 ESCOFET GUICH I BUSQUETS, SA Reg.Merc.Girona, Full GI-33914, Foli 67, Tom 2029. Nº RPP ENV/2025/000054139 - C.I.F. A17773409 11/04/2026 Vencimientos: Forma de Pago:  TRANSF. A 60 DIES Entidad/Banco:   IBAN:  ES97 2100 8606 1202 0001 5242 Digitally signed by 40323208E JOSE ESCOFET GRAU (R: A17773409) Date: 2026.02.04 12:09:23 +01:00 Reason: E.G.B, S.A. Location: RIUDELLOTS DE LA SELVA </t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1408</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>ESCOFET GUICH I BUSQUETS S.A.</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>40000994</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>100</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>A31012026, 00200457C, 16330298F, F97259685, R60020048, A22012026, P22376871, 21092000A, 20921000A, 93361500A, 17000100T, G21002521, 50730507E, V20250000, A17773409, 11042026V, S97210086, 00015242D, 40323208E, E20260204, 09230100R</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>...P ENV/2025/000054139 - C.I.F. A17773409 11/04/2026 Vencimientos: Form...</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0916312781.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916312781.pdf</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:47:03</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>93cc5539e28a</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>24/11/25</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.330,69</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916312781 Fecha documento 23.01.2026 Código distribuidor: 24291960 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347567348 Fecha entrega: 23.01.2026            Nº pedido: 210758511 Fecha pedido: 30.09.2025            Nº pedido cliente: 2909/25             POSICION 4-5-6- MAQUINAS DE BATERIA Y BATERIAS             ------7 AP 300 SIN CARGO----    600 7 EA01-400-6505 AP 500.0 S Acumulador  Nº de serie:  198291404, 198291442, 198291466, 198291470, 198291485, 198291489,  198291492    412,40 1 UDS -31,00 1.991,89 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:            Nº pedido: 211061621 Fecha pedido: 25.11.2025            Nº pedido cliente: 24/11/25             jardin botanico madrid / 2600-1000             ismael asenjo                se aplica Oferta Otoño, más favorable que organismo oficial          1000 2 FA01-200-0022 FSA 135 Motoguadaña de acumulador,AutoCut C 26-2  real jardin  Nº de serie:  451963193, 451963195    519,83 1 UDS -29,00 738,15 R3 Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916312781 Fecha documento 23.01.2026 Código distribuidor: 24291960</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>2850</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>100</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16312781F, 23012026C, R24291960, A24291960, A34756734, A23012026, 10758511F, 30092025N, A01400650, E19829140, S31001991, 11061621F, 25112025N, D26001000, A01200002, E45196319, S29007381, 18879801N, 11203848F, 19122025N, E17122542, E19829143, S31005691, 26133064E, 26133069E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>31,170</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0916318615.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916318615.pdf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:48:36</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>80f48b359d36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.970,02</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916318615 Fecha documento 26.01.2026 Nº pedido: 210758479 Fecha pedido: 01.01.2026 Código distribuidor: 24291960 Nº pedido cliente: Temporada PV 26 NIF ESA28346245 Página 1 / 4 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347581316 Fecha entrega: 26.01.2026    100 8 4520-007-5902 SET AK 30S (AK 30S+ AL101)  Nº de serie:  985185758, 985185762, 985185764, 985185769, 985185774, 985185801,  985185803, 985185804  Promoción  8862 TEMPORADAS 2026    156,20 1 UDS -33,00 837,23 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960: 200 1 4784-012-4400 SE 62  Nº de serie:  969546725  Promoción  8862 TEMPORADAS 2026    139,67 1 UDS -31,00 96,37 R3 300 2 4812-011-3577 HSE 71 Cortasetos eléctrico, 700mm/28"  Nº de serie:  943193257, 943193264  Promoción  8862 TEMPORADAS 2026    222,31 1 UDS -31,00 306,79 R3 400 1 4818-011-3532 HSE 52 Cortasetos eléctrico, 500mm/20"  Referencia pedida: 4818-011-3507  Nº de serie:  123,14 1 UDS -31,00 84,98 R3 Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916318615 Fecha documento 26.01.2026 Código distribuidor: 24291960 Página 2 / 4 Ref. Cant. UDS Referencia Descripción Precio</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>5995</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>100</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16318615F, 26012026N, 10758479F, 01012026C, R24291960, A24291960, A34758131, A26012026, 00075902S, E98518575, 85185804P, S20261562, S33008372, 40124400S, E96954672, S20261396, S31009637, R33002481, 20113577H, E94319325, 43193264P, S20262223, S31003067, R34001481, 80113532H, A48180113, S31008498, 18879801N, 26012026C, A94346524, S20265002, 05008000J, S20264752, S31006558, R31000263, 10111415R, E95666830, 56668314P, S20261644, S33002203, E01011451, E84064879, S20264950, S28003564, E84064885, S20265776, S28004159, E01011454, E84027689, E84041887, S28004754, S20262000, E02011453, E97057104, S20269835, S28007081, E02011454, E97047527, 70475282P, S20261727, S28002487, E01012441, E95656633, 56566335P, S20266529, S26009663, A20011141, A20011140, E45023732, 50237332P, S33001161, A22011141, E45198862, S20266438, S33004313, A34758132, 00114560R, E84029283, 40292966P, S20263297, S28009496, 00114580R, E84029313, S20263876, S28002790, 26197004E, 26197002E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>436,916</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0916318616.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916318616.pdf</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:48:36</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4d4b26f090d7</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916318616 Fecha documento 26.01.2026 Nº albarán: 347581317 Fecha entrega: 26.01.2026 Nº pedido: 210758479 Fecha pedido: 01.01.2026 Código distribuidor: 24291960 Nº pedido cliente: Temporada PV 26 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 1100 1 6350-011-1403 RMA 248.0 (EU2) Cortacésped  Nº de serie:  446401259    205,79 1 UDS -29,00 146,11 R3 3400 1 4818-011-3532 HSE 52 Cortasetos eléctrico, 500mm/20"  Nº de serie:  943465239  Promoción  8862 TEMPORADAS 2026    123,14 1 UDS -31,00 84,98 R3 Cargo de portes 0,92 R3 Base Imponible: EUR 232,01 IVA: R3 21,0% EUR 48,72 Total: EUR 280,73          Peso total neto:  25,120 KG  Cond. pago:  1. plazo 25%, 31.03.2026 70,18 EUR    2. plazo 25%, 30.04.2026 70,18 EUR    3. plazo 25%, 31.05.2026 70,18 EUR    4. plazo 25%, 30.06.2026 70,19 EUR           El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916318616 Fecha documento 26.01.2026 Código distribuidor: 24291960 Página 2 / 2 como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como empresa inscri</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>2032</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>100</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16318616F, 26012026N, N34758131, A26012026, 10758479F, 01012026C, R24291960, A11001635, 00111403R, E44640125, S29001461, R33400148, 80113532H, E94346523, S20261231, S31008498, 20267018E, 20267019E, D1102015F, 18879801N, 26012026C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>25,120</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0916318617.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916318617.pdf</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:48:20</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9915c1ae92d2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15/12/25</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>103,90</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916318617 Fecha documento 26.01.2026 Nº albarán: 347581828 Fecha entrega: 26.01.2026 Nº pedido: 211179527 Fecha pedido: 16.12.2025 Código distribuidor: 24291960 Nº pedido cliente: 15/12/25 NIF ESA28346245 Página 1 / 1 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 1000 1 4241-011-0932 SH 86 Aspiradora / Trituradora  RP/13928 PEÑA  Nº de serie:  198315878    362,81 1 UDS -29,00 257,60 R3 Base Imponible: EUR 257,60 IVA: R3 21,0% EUR 54,10 Total: EUR 311,70          Peso total neto:  6,294 KG  Cond. pago:  1 plazo 33%, 28.02.2026 103,90 EUR    2 plazo 33%, 31.03.2026 103,90 EUR    3 plazo 33%, 30.04.2026 103,90 EUR           El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como empresa inscrita en el RII-PYA con N° 284.    </t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>1391</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>100</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16318617F, 26012026N, N34758182, A26012026, 11179527F, 16122025C, R24291960, A10001424, 10110932S, E19831587, S29002576, 02610390E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>6,294</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0916340046.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916340046.pdf</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-01-29T23:00:10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>a69328a47251</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>790,07</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916340046 Fecha documento 29.01.2026 Nº albarán: 347619705 Fecha entrega: 29.01.2026 Nº pedido: 210758479 Fecha pedido: 01.01.2026 Código distribuidor: 24291960 Nº pedido cliente: Temporada PV 26 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 900 1 6290-011-3105 RL 540.0  Nº de serie:  452158503  Promoción  8862 TEMPORADAS 2026    602,48 1 UDS -31,00 415,71 R3 1400 1 6378-011-3421 RM 756.0 YC  Nº de serie:  451988087  Promoción  8862 TEMPORADAS 2026    1.817,36 1 UDS -33,00 1.217,63 R3 3200 3 WB41-011-3400 RM 448.3 T (EU1) Cortador de relva  Nº de serie:  452462502 - 452462504  Promoción  8862 TEMPORADAS 2026    486,78 1 UDS -33,00 978,44 R3 Base Imponible: EUR 2.611,78 IVA: R3 21,0% EUR 548,47 Total: EUR 3.160,25          Peso total neto:  192,323 KG  Cond. pago:  1. plazo 25%, 31.03.2026 790,06 EUR  Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916340046 Fecha documento 29.01.2026 Código distribuidor: 24291960 Página 2 / 2   2. plazo 25%, 30.04.2026 790,06 EUR    3. plazo 25%, 31.05.2026 790,06 EUR    4. plazo 25%, 30.06.2026 790,07 EUR           El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como e</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>2168</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>100</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16340046F, 29012026N, N34761970, A29012026, 10758479F, 01012026C, R24291960, A90016290, E45215850, S20266024, S31004157, R31400163, 80113421R, E45198808, S20261817, S33001217, B41011340, E45246250, 52462504P, S20264867, S33009784, 02679006E, 18879801N, 29012026C, 02679007E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>192,323</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0916340047.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916340047.pdf</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-29T23:00:10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>015fe9a95f48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>12/01/26</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916340047 Fecha documento 29.01.2026 Nº albarán: 347619706 Fecha entrega: 29.01.2026 Nº pedido: 211304894 Fecha pedido: 15.01.2026 Código distribuidor: 24291960 Nº pedido cliente: 12/01/26 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 2100 1 MA03-200-0012 MSA 200.0 C-B Motosierra de acumulador,30cm/12",71PM3  gpool    342,15 1 UDS -29,00 242,93 R3 Compuesto por: 2101 1 MA03-011-5811 MSA 200.0 C-B 1/4"P Motosierra de acumulador  Nº de serie:  452418446    2102 1 3005-008-3405 Espada 30 R M 1/4"  P 1,1 10 Z 2103 1 3670-000-0064 Cadena cortada 30 1/4" PM3 2104 1 0000-792-9171 Protector de cadena 30 - 35 cm 3005 mini Base Imponible: EUR 242,93 IVA: R3 21,0% EUR 51,02 Total: EUR 293,95          Peso total neto:  4,014 KG  Cond. pago:  1 plazo 33%, 28.02.2026 97,98 EUR    2 plazo 33%, 31.03.2026 97,98 EUR    3 plazo 33%, 30.04.2026 97,99 EUR        Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916340047 Fecha documento 29.01.2026 Código distribuidor: 24291960 Página 2 / 2    El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del product</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>2088</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>100</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16340047F, 29012026N, N34761970, A29012026, 11304894F, 15012026C, R24291960, A03200001, S29002429, A03011581, E45241844, 50083405E, 00000064C, 07929171P, 20269798E, 20269799E, 18879801N, 29012026C, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>4,014</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0916342477.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916342477.pdf</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-01-30T16:52:14</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6ee6ea25ec29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>rectificativa</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>9.732,03</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura rectificativa Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916342477 Fecha documento 30.01.2026 Nº pedido: 803599543 Fecha pedido: 30.01.2026 Ref. documento: 100000170 Código distribuidor: 24291960 Nº pedido cliente: Abono Rappel Premium NIF ESA28346245 Página 1 / 1 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 100 8043 0000-007-9044 Abono rappel             8.043,00 R3 Base Imponible: EUR 8.043,00 IVA: R3 21,0% EUR 1.689,03 Total: EUR 9.732,03             Rappel PREMIUM 2022           El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como empresa inscrita en el RII-PYA con N° 284.    </t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>1208</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>100</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16342477F, 30012026N, 03599543F, 30012026R, 00000170C, R24291960, A10080430, 00079044A, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0916347139.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916347139.pdf</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-01-30T23:02:33</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9acd6f0cf395</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>23/12/25</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916347139 Fecha documento 30.01.2026 Código distribuidor: 24291960 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347625110 Fecha entrega: 30.01.2026            Nº pedido: 211244340 Fecha pedido: 30.12.2025            Nº pedido cliente: 23/12/25    1900 1 6338-430-1109 Caja del interruptor  PARTE 13621 ISMA    33,31 1 UDS -31,00 22,98 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:            Nº pedido: 211304894 Fecha pedido: 15.01.2026            Nº pedido cliente: 12/01/26    1100 1 4241-120-0623 Carburador 4241/23  b130    76,93 1 UDS -31,00 53,08 R3 Base Imponible: EUR 76,06 IVA: R3 21,0% EUR 15,97 Total: EUR 92,03          Peso total neto:  0,506 KG  Cond. pago:  1 plazo 33%, 28.02.2026 30,68 EUR    2 plazo 33%, 31.03.2026 30,68 EUR    3 plazo 33%, 30.04.2026 30,67 EUR     Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916347139 Fecha documento 30.01.2026 Código distribuidor: 24291960 Página 2 / 2       El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 290</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>2127</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>100</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16347139F, 30012026C, R24291960, A24291960, A34762511, A30012026, 11244340F, 30122025N, E23122519, 84301109C, S31002298, 11304894F, 15012026N, E12012611, 11200623C, B13076931, S31005308, 20263068E, 20263067E, 18879801N, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0,506</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0916347869.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916347869.pdf</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2026-01-31T09:51:08</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>88a8f7235dfc</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>rectificativa</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>9.732,03</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura rectificativa Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916347869 Fecha documento 31.01.2026 Nº pedido: 803599543 Fecha pedido: 30.01.2026 Ref. documento: 100000170 Código distribuidor: 24291960 Nº pedido cliente: Abono Rappel Premium NIF ESA28346245 Página 1 / 1 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 100 8043 0000-007-9044 Abono rappel             8.043,00 R3 Base Imponible: EUR 8.043,00 IVA: R3 21,0% EUR 1.689,03 Total: EUR 9.732,03             Rappel PREMIUM 2025              El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como empresa inscrita en el RII-PYA con N° 284.    </t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>1211</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>100</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16347869F, 31012026N, 03599543F, 30012026R, 00000170C, R24291960, A10080430, 00079044A, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0916348525.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916348525.pdf</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2026-02-01T22:36:03</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6ae677da0900</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>129,06</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916348525 Fecha documento 01.02.2026 Nº pedido: 803601067 Fecha pedido: 01.02.2026 Código distribuidor: 24291960 Nº pedido cliente: FPM/04 NIF ESA28346245 Página 1 / 1 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 100 1 0000-007-9051 FORMACIÓN  Curso:FPM/04Modalidad: Presencial/Prevencion y Manejo de Maquinaria  Poda en AlturaFecha:13/01/2026Duración:2 dias     Empresa impartidora de la formación: Andreas Stihl, S.A.; C.I.F.: A 28940740.  C/Londres, 20 Torres de la Alameda 28813 Madrid             320,00 R3 Base Imponible: EUR 320,00 IVA: R3 21,0% EUR 67,20 Total: EUR 387,20          Cond. pago:  1 plazo 33%, 31.03.2026 129,07 EUR    2 plazo 33%, 30.04.2026 129,07 EUR    3 plazo 33%, 31.05.2026 129,06 EUR           El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como empresa inscrita en el RII-PYA con N° 284.    </t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>1487</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>100</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16348525F, 01022026N, 03601067F, 01022026C, R24291960, A10010000, A13012026, 02612907E, 02612906E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0916362747.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916362747.pdf</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2026-02-03T23:12:08</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>e2e1422a1e22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>rectificativa</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>16/12/24</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>83,60</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Factura rectificativa Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916362747 Fecha documento 03.02.2026 Nº pedido: 803602525 Fecha pedido: 02.02.2026 Código distribuidor: 24291960 Nº pedido cliente: Abono RTU-02.02.2026 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 100 1 1146-200-0057 MS 151 TC-E 1/4"P P Motosierra  Esta partida corresponde a la factura 914067448, Posición 6300.  Número de pedido: 16/12/24.  Número(s) de serie incluido(s): 196380199    22,89 R3 Compuesto por: 101 1 1146-011-3020 MS 151 TC-E 1/4"P 102 1 3005-008-3405 Espada 30 R M 1/4"  P 1,1 10 Z 103 1 3670-000-0064 Cadena cortada 30 1/4" PM3 104 1 0000-792-9171 Protector de cadena 30 - 35 cm 3005 mini 200 1 MA04-011-5814 MSA 60.0 C-B 1/4"P SET Motosierra de acumulador  Esta partida corresponde a la factura 914084275, Posición 500.  Número de pedido: 18/12/2024.  Número(s) de serie incluido(s): 450416191    14,01 R3 300 1 4282-200-0022 BR 600 Soplador de mochila  Esta partida corresponde a la factura 914100234, Posición 400.  Número de pedido: 30/12/24.  Número(s) de serie incluido(s): 544338872    32,19 R3 Factura rectificativa Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916362747 Fecha documento 03.02.2026 Código distribuidor: 24291960 Página 2 / 2 Ba</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>2361</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>100</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16362747F, 03022026N, 03602525F, 02022026C, R24291960, U02022026, A10011146, A91406744, S19638019, R10111146, P10213005, 00000064C, 07929171P, A04011581, A91408427, 18122024N, S45041619, R33001428, 22000022B, A91410023, S54433887, 18879801N, 03022026C, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0916370346.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916370346.pdf</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2026-02-04T23:01:58</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>954e6ab6ee61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12/01/26</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>04.02</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916370346 Fecha documento 04.02.2026 Nº albarán: 347661664 Fecha entrega: 04.02.2026 Nº pedido: 211304894 Fecha pedido: 15.01.2026 Código distribuidor: 24291960 Nº pedido cliente: 12/01/26 NIF ESA28346245 Página 1 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 200 1 1148-200-0017 MS 172 35cm/14",63PM3  zorin 618096244    222,31 1 UDS -29,00 157,84 R3 Compuesto por: 201 1 1148-011-3020 MS 172 3/8"P Motosierra  Nº de serie:  840404535    202 1 3005-000-7409 Guía LP04 35cm/14" 1,3mm/0.050" 3/8"P 203 1 3636-000-0050 Cadena cortada 35 R 3/8" PM3 204 1 0000-792-9172 Protector de cadena 30 - 35 cm 3005 Base Imponible: EUR 157,84 IVA: R3 21,0% EUR 33,15 Total: EUR 190,99          Peso total neto:  5,131 KG  Cond. pago:  1 plazo 33%, 31.03.2026 63,66 EUR    2 plazo 33%, 30.04.2026 63,66 EUR    3 plazo 33%, 31.05.2026 63,67 EUR        Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916370346 Fecha documento 04.02.2026 Código distribuidor: 24291960 Página 2 / 2    El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como em</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>2044</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>100</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16370346F, 04022026N, N34766166, A04022026, 11304894F, 15012026C, R24291960, A20011148, N61809624, S29001578, R20111148, E84040453, 50007409G, P20313636, 07929172P, 20266366E, 20266367E, 18879801N, 04022026C, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>5,131</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0916377667.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0916377667.pdf</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2026-02-05T22:57:04</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>35932fec4b93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>30/01/26</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>5.912,34</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916377667 Fecha documento 05.02.2026 Nº pedido: 211406196 Fecha pedido: 05.02.2026 Código distribuidor: 24291960 Nº pedido cliente: 30/01/26 NIF ESA28346245 Página 1 / 8 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347681610 Fecha entrega: 05.02.2026    100 10 3670-000-0028 71 PM3 Picco Micro Cadena 7,52 1 UDS -31,00 51,89 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960: 1600 1 4404-680-2020 Barrena tierra 200 x 695 mm BT 121/130  valoriza 674620650 miguel    208,26 1 UDS -31,00 143,70 R3 1700 20 3616-000-0044 Cadena cortada 3/8" PS3 44 E  Promoción  9652 CAMPAÑA FORESTAL FEBRERO 26    14,79 1 UDS -42,00 171,56 R3 1800 20 3610-000-0044 Cadena cortada 30 R 3/8" PMMC3 1,1 mm.  Promoción  9652 CAMPAÑA FORESTAL FEBRERO 26    13,39 1 UDS -42,00 155,32 R3 2200 10 0000-881-0209 Bidón para gasolina 20 L Transparentes 23,14 1 UDS -31,00 159,67 R3 2300 10 0000-881-0202 Bidón para gasolina 5 L Transparentes 8,18 1 UDS -31,00 56,44 R3 2400 10 0000-881-0200 Bidón para gasolina 5 L naranja 8,18 1 UDS -31,00 56,44 R3 Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916377667 Fecha documento 05.02.2026 Código</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>11273</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>100</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16377667F, 05022026N, 11406196F, 05022026C, R24291960, A24291960, A34768161, A05022026, 00002871P, S31005189, 46802020B, A67462065, S31001437, R31700203, 60000044C, S42001715, R31800203, 00000044C, S42001553, R32200100, 08810209B, S31001596, R32300100, 08810202B, S31005644, R32400100, 08810200B, 18879801N, A25005000, 08810212B, S31004448, R32600102, 08819400P, S35005642, R33000130, 30006041G, S31007984, R33100203, 60000055C, S31002543, R33400141, 07107131T, N64548308, S31004933, R35900411, 72000000M, S29003682, R59014114, 70113000M, E19829515, 30002021E, 10000072C, S59044000, 07929176P, A34768179, 08898014F, S31001055, 36642405E, A17121023, S3100153R, 54004713A, S31004875, R35001114, 54403006M, S3100670R, 61200605C, S31003262, R38001114, 64001205V, S31002995, R39001423, 70343001S, S3100273R, 60071600J, S3100480R, 67909900S, S3100367R, 61402500C, S31001352, A14001000, 09302203R, R34616492, S31002094, A01640170, A60135296, S31001026, R32800149, 07981902G, S3100872R, 93500414D, S31003365, R33300311, 71201605F, S31001101, R33500242, 21200611C, B13011488, S31001585, R33900100, 03503521C, S31003305, R34000595, 20031830J, S31001870, R34100241, 70343000S, S3100548R, A42001413, 70300401C, R34300500, 86111608G, S31005845, R34500500, 86111611G, R34600500, 86111612G, R34800500, 86100312G, S31001682, R34900100, 41404400F, A68066481, S31001186, R35000148, S3100629R, A01430050, S3100326R, A01430140, S31008212, R35300142, 31201500P, S3100667R, A55001000, 03503502F, R35600142, 37006318V, S3100730R, 03500536C, B1097021U, S31002907, R36200456, 57504306P, S31009351, R36300456, 57504303P, R36400456, 57504304P, R36500456, 57504305P, 11201110G, S35004030, R32000300, 11201117G, S35001047, R32100200, 11201118G, S35001612, R33200136, 10000098C, S31002452, A37001041, 81410300F, S31004919, R33800104, 71410300F, S31004685, R35400142, 31410301F, S3100676R, 03500533C, B1098101U, S31003353, 04117000M, S35006380, 72000637F, E19792075, S29006888, R1465840I, R1773666F, 26591216E, 26591234E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>290,536</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0991030641.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\0991030641.pdf</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2026-01-30T17:37:20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>e8bda671029f</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>pedido</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>9.732,03</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nota de crédito revertida Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 991030641 Fecha documento 30.01.2026 Nº pedido: 803599543 Fecha pedido: 30.01.2026 Código distribuidor: 24291960 Nº pedido cliente: Abono Rappel Premium NIF ESA28346245 Página 1 / 1 Documento revertido 916342477 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 100 8043 0000-007-9044 Abono rappel             8.043,00 R3 Base Imponible: EUR 8.043,00 IVA: R3 21,0% EUR 1.689,03 Total: EUR 9.732,03             Rappel PREMIUM 2022           El importe de esta factura incluye la aportación para la correcta gestión de RII-AEE, según el RD. 110/2015,  como empresa inscrita en el REI-RAEE con N° 2901 y de las pilas y baterías del producto, en cumplimiento del  RD 710/2015, como empresa inscrita en el RII-PYA con N° 284.    </t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>1216</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>100</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 91030641F, 30012026N, 03599543F, 30012026C, R24291960, 16342477R, A10080430, 00079044A, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10524625.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\10524625.pdf</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2026-01-30T02:24:52</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>db1b2fce56b4</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>A20516233</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>350/ARV</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>26-01-29</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1.446,64</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1 / 1 FACTURA 350/ARV Fecha factura Pagador Cliente NDC# NIF 2026-01-29 280022969 ESA28346245 10524625 320-00280022969 Factura# CIP   ROAD 60 DAYS PAY ON 10TH OR 20TH 2026-04-10 Forma de pago Modo de transporte Vencimiento Dirección de facturación Dirección de envío (280022969) 320-00280022969 JOFEG S.A JOFEG S.A IMPRESORES 22 P.I.PRADO ESPINO IMPRESORES 22 P.I.PRADO ESPINO 28669 BOADILLA DEL MONTE 28669 BOADILLA DEL MONTE SPAIN SPAIN 373159635048729479 373159635048729998 373159635048730109 373159635048730314 373159635048730338 373159635048730352 373159635048730376 Pedido# Nº de envío Fecha de envío S/Pedido SSCC 3H2174730 3H3185526 2026-01-29 proforma jofeg 2026-01-28 Fecha pedido Línea# Artículo Cantidad Precio Precio unit Importe Impuesto Descuento  34,17  17,28  103,66 44 - 1 - 4 - 5 21 % 6 1 / 1 P59-25-F 7311518275655 HEDGE SHEARS, NEW DESIGN 2007  53,26  26,93  215,43 44 - 1 - 4 - 5 21 % 8 2 / 2 P51-F 7311518275426 HEDGE SHEAR FR VERSION  56,19  28,41  170,46 44 - 1 - 4 - 5 21 % 6 3 / 3 P51H-SL 7311518301224 LIGHT HEDGE SHEAR HD, LONG  7,20  6,84  342,00 5 21 % 50 4 / 4 P126-22-F 7311518275303 ONE HAND SECATEURFR VERSION  13,33  6,74  40,44 44 - 1 - 4 - 5 21 % 6 5 / 5 LS-COMBINESS 7311518041366 GRINDING STONE 400/180  47,14  23,84  95,34 44 - 1 - 4 - 5 21 % 4 6 / 6 P140-F 7311518275372 TWO HAND LOPPER,NEW DESIGN 07  37,16  18,79  112,73 44 - 1 - 4 - 5 21 % 6 7 / 7 P130-F 7311518333980 TWO HAND LOPPER 45 CM  60,49  30,58  30,58 44 - 1 - 4 - 5 21 % 1 8 / 8 PG-19-F 7311518295936 EXPERT BYPASS LOPPER TELESCOP.  11,50  10,92  54,62 5 21 % 5 9 / 9 PROF-H 7311518158439 SECATEUR HOLSTER GENUINE LEATH  11,99  6,06  30,31 44 - 1 - 4 - 5 21 % 5 10 / 10 4-272-06-3-2 7311518001025 LIMAS ROMBIC WASA C/MANGO 6 F  0,00  0,00 21 % 50 11 / 11 ATA2025-2 7314150578788 Irimo a tu Alcance 2025-2  0,00  0,00 21 % 50 12 / 12 MRO2025-2 7314150578801 Marca la Diferencia 2025-2 Importe total de línea  1.195,57  1.195,57 Subtotal  1.195,57  251,07 21,00 % EUR  1.446,64 Total factura TBAI</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>2646</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>SNA EUROPE INDUSTRIES IBERIASA</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>40000601</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>100</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>F20260129, 80022969E, 80022969F, H20260410, 80022969J, N37315963, 48730376P, H21747303, H31855262, G20260128, 14521611P, F73115182, N20075326, 14521822P, N56192841, 14521633P, 18301224L, G72068434, 05215044P, N13336744, 14521655L, S73115180, E40018047, 14521466P, N07371618, 14521677P, F73115183, 14521188P, P11501092, 62521599P, H73115181, H11996063, 18001025L, F00000021, A20252731, E20252000, 21501212M, 50578801M, A11955711, 51072100E, A20516233, S23018223, 18102410S, N94526991, 45269755A, 43649111F, 43649120P, 30701080V, V20230000</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>1.195,57</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>...  1.446,64 Total factura TBAI-A20516233-29012 6-PfRyDHkw65oGa-238 BBV...</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>222260125463111-R002.PDF</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\222260125463111-R002.PDF</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:48:04</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2e97252bf5d8</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>A08503930</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>463111-R</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>99,98-</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  FACTURA  463111-R  JOFEG, S.A.  Fecha:  25/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660 BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  Tomo 43003, Folio 138, Hoja B-33280 , Inscripción 11  DESCRIPCION  ARTICULO  CANTIDAD  P.U.  DT1 DT2 IVA  IMPORTE  Nº Albaran:  PL244962  Fecha: 21/01/2026  PL244962  PROMO BLACK FRIDAY  75900003  330,56-  21,00  FRAS.8421 8600 8503  SU FACTURA :  531147-N  DE FECHA :  25/03/2025  De acuerdo con el Real Decreto RD1055/2022 (Envases con nuevas obligaciones los  envases industriales y comerciales) el comprador es responsable de la gestión  y eliminación de los residuos. Número de productor ENV/2023/000018123  Se realiza la contribución al SCRAP por los envases transferidos en esta factura  T.IVA  NETO  DTO  BASE  IVA  REC.EQUIV.  SUBTOTAL  330,56-  21,00  330,56-  330,56  69,42-  I.V.A  69,42-  399,98-  TOTAL  DATOS DE PAGO:  A DEDUCIR DE PROXIMAS FACTURAS  Banco o Caja  Banco sucursal  D.C C.Corriente  VALOR EN:  EUR  2100  2025  77  0200002956  Vencimiento: 21/02/2026  Observaciones.:  .  FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  FACTURA  463111-R  JOFEG, S.A.  Fecha:  25/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660  COPIA  BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>2936</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPA¤A S.A.U</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>40008052</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>S6908174S, 02423222F, 02946182E, S18008151, 01135114F, A25012026, 22228660B, A08503930, A21012026, 30562100F, S84218600, A25032025, D10552022, V20230000, A69423999, R21002025, 00002956V</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>30,56-</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>9,42-</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>...COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  To...</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>222260130678479-N002.PDF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\222260130678479-N002.PDF</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2026-02-02T18:05:14</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6d224cbd49bf</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>A08503930</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>678479-N</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>51,47</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  678479-N  JOFEG, S.A.  Fecha:  30/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660 BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  PP22324  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  Tomo 43003, Folio 138, Hoja B-33280 , Inscripción 11  DESCRIPCION  ARTICULO  CANTIDAD  P.U.  DT1 DT2 IVA  IMPORTE  Nº Albaran:  OD4445808  Fecha: 30/01/2026  CONDENSADOR 30 uF  4405011393  5 UN  20,5500 A0R 55,0  42,54  21,00  8,0  Cupón: PCR2025 Precampaña Repuestos: descuento  extra +8% (+10.000) Financiación: 150 días,  hablado con Alvaro-Hector  De acuerdo con el Real Decreto RD1055/2022 (Envases con nuevas obligaciones los  envases industriales y comerciales) el comprador es responsable de la gestión  y eliminación de los residuos. Número de productor ENV/2023/000018123  Se realiza la contribución al SCRAP por los envases transferidos en esta factura  T.IVA  NETO  DTO  BASE  IVA  REC.EQUIV.  SUBTOTAL  42,54  21,00  42,54  42,54  8,93  I.V.A  8,93  51,47  TOTAL  DATOS DE PAGO:  CONFIRMING 150 DIAS  Banco o Caja  Banco sucursal  D.C C.Corriente  VALOR EN:  EUR  2100  2025  77  0200002956  Vencimiento: 21/07/2026  Observaciones.:  .  FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  678479-N  JOFEG, S.A.  Fecha:  30/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660  COPIA  BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222 </t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>3062</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPA¤A S.A.U</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>40008052</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>100</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>S6908174S, 02423222F, 02946182E, S18008151, 01135114F, A30012026, P22324286, A08503930, D4445808F, F44050113, R55042542, D10552022, V20230000, A8935147T, R21002025, 00002956V</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>42,54</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>8,93</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>...COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  To...</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>222260130678480-N002.PDF</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\222260130678480-N002.PDF</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2026-02-02T18:04:27</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0fb4cf1a273b</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>A08503930</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>678480-N</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>44,17</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  678480-N  JOFEG, S.A.  Fecha:  30/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660 BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  PP/22263  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  Tomo 43003, Folio 138, Hoja B-33280 , Inscripción 11  DESCRIPCION  ARTICULO  CANTIDAD  P.U.  DT1 DT2 IVA  IMPORTE  Nº Albaran:  OD4443621  Fecha: 27/01/2026  PSU-02-15A. DIFUSOR 5 CM. 0-360º 4,6Mº  49593  300 UN  4,1900 I09 55,0 31,6  367,08  21,00  5,0  De acuerdo con el Real Decreto RD1055/2022 (Envases con nuevas obligaciones los  envases industriales y comerciales) el comprador es responsable de la gestión  y eliminación de los residuos. Número de productor ENV/2023/000018123  Se realiza la contribución al SCRAP por los envases transferidos en esta factura  T.IVA  NETO  DTO  BASE  IVA  REC.EQUIV.  SUBTOTAL  367,08  21,00  367,08  367,08  77,09  I.V.A  77,09  444,17  TOTAL  DATOS DE PAGO:  CONFIRMING 90 DIAS  Banco o Caja  Banco sucursal  D.C C.Corriente  VALOR EN:  EUR  2100  2025  77  0200002956  Vencimiento: 21/05/2026  Observaciones.:  .  FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  678480-N  JOFEG, S.A.  Fecha:  30/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660  COPIA  BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  PP/22263  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>2880</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPA¤A S.A.U</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>40008052</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>100</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>S6908174S, 02423222F, 02946182E, S18008151, 01135114F, A30012026, P22263286, A08503930, D4443621F, A27012026, 08210050D, D10552022, V20230000, A77094441, R21002025, 00002956V</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>67,08</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>...COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  To...</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>222260130678481-N002.PDF</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\222260130678481-N002.PDF</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2026-02-02T18:04:42</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6efe6a7c8030</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>A08503930</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>678481-N</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>52,75</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  678481-N  JOFEG, S.A.  Fecha:  30/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660 BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  PP/22396  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  Tomo 43003, Folio 138, Hoja B-33280 , Inscripción 11  DESCRIPCION  ARTICULO  CANTIDAD  P.U.  DT1 DT2 IVA  IMPORTE  Nº Albaran:  OD4445809  Fecha: 30/01/2026  TE 90º PVC 125MM (7 UDS)  01789PC  1 UN  244,0000 F04 45,0 45,4  73,21  21,00  CASQUILLO REDUCCION PVC D.125 X 110  01931  24 UN  8,8400 F01 60,0  84,86  21,00  CASQUILLO REDUCCION PVC D.50 X 40  01921  60 UN  0,9800 F01 60,0  23,52  21,00  VALVULA DE CLAPETA  PVC-U  D.140  08987  10 UN  46,9700 F02 55,0  211,37  21,00  CESTO PREFILTRO  4405010304  5 UN  65,1100 A0R 55,0  146,50  21,00  De acuerdo con el Real Decreto RD1055/2022 (Envases con nuevas obligaciones los  envases industriales y comerciales) el comprador es responsable de la gestión  y eliminación de los residuos. Número de productor ENV/2023/000018123  Se realiza la contribución al SCRAP por los envases transferidos en esta factura  T.IVA  NETO  DTO  BASE  IVA  REC.EQUIV.  SUBTOTAL  539,46  21,00  539,46  539,46  113,29  I.V.A  113,29  652,75  TOTAL  DATOS DE PAGO:  CONFIRMING 90 DIAS  Banco o Caja  Banco sucursal  D.C C.Corriente  VALOR EN:  EUR  2100  2025  77  0200002956  Vencimiento: 21/05/2026  Observaciones.:  .  FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  678481-N  JOFEG, S.A.  Fecha:  30/01/2026  C/ IMPRESORES</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>3470</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPA¤A S.A.U</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>40008052</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>100</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>S6908174S, 02423222F, 02946182E, S18008151, 01135114F, A30012026, P22396286, A08503930, D4445809F, N2440000F, 73212100C, F01600848, F01600235, D14008987, F02550211, R55014650, D10552022, V20230000, A11329652, R21002025, 00002956V</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>39,46</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>...COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  To...</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>222260130678482-N002.PDF</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\222260130678482-N002.PDF</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2026-02-02T18:04:26</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>568a6e16f1be</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>A08503930</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>678482-N</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>57,17</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  678482-N  JOFEG, S.A.  Fecha:  30/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660 BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUINA CARRETEROS  ESA28346245  004222  Químico 25kg  28660  BOADILLA DEL MONTE  FLUIDRA COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  Tomo 43003, Folio 138, Hoja B-33280 , Inscripción 11  DESCRIPCION  ARTICULO  CANTIDAD  P.U.  DT1 DT2 IVA  IMPORTE  Nº Albaran:  OD4445810  Fecha: 30/01/2026  CTX  200/GR  25KG DICLORO GR.55%  10905  100 KG  3,2000 C01  320,00  21,00  Impuesto Envases Plástico no reutilizables Kg.  5,488  0,45000  2,47  CTX  500  25LT ALGICIDA LIQ.  03195  100 LT  1,3800 C04  138,00  21,00  De acuerdo con el Real Decreto RD1055/2022 (Envases con nuevas obligaciones los  envases industriales y comerciales) el comprador es responsable de la gestión  y eliminación de los residuos. Número de productor ENV/2023/000018123  Se realiza la contribución al SCRAP por los envases transferidos en esta factura  T.IVA  NETO  DTO  BASE  IVA  REC.EQUIV.  SUBTOTAL  460,47  21,00  460,47  460,47  96,70  I.V.A  96,70  557,17  TOTAL  DATOS DE PAGO:  CONFIRMING 90 DIAS  Banco o Caja  Banco sucursal  D.C C.Corriente  VALOR EN:  EUR  2100  2025  77  0200002956  Vencimiento: 21/05/2026  Observaciones.:  .  FLUIDRA COMERCIAL ESPAÑA, SAU  AV. ALCALDE BARNILS , 69  08174 SANT CUGAT DEL VALLES  Tel.: +(34)902423222  Fax.: +(34)902946182  E-mail:facturacion@fluidra.es  IBAN: ES18 0081 5172 8100 0113 5114  F A C T U R A  678482-N  JOFEG, S.A.  Fecha:  30/01/2026  C/ IMPRESORES, 22 ESQUINA CARRETEROS  POL. IND. PRADO DEL ESPINO  28660  COPIA  BOADILLA DEL MONTE  MADRID  PAG:  1  DIRECCION FISCAL  CLIENTE  C.I.F  S.REF.  C/ IMPRESORES, 22 ESQUIN</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>3130</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>FLUIDRA COMERCIAL ESPA¤A S.A.U</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>40008052</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>100</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>S6908174S, 02423222F, 02946182E, S18008151, 01135114F, A30012026, A08503930, D4445810F, R55109051, C01320002, G54880450, Q03195100, C04138002, D10552022, V20230000, A96705571, R21002025, 00002956V</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>60,47</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>6,70</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>...COMERCIAL ESPAÑA, S.A.U CIF:ESA08503930 Inscr.Reg.Merc.Barcelona,  To...</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3026103910.PDF</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\3026103910.PDF</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2026-01-29T23:33:32</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>c866fb2ba0cd</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>A08147191</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>JOFEG</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>45.146</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>FACTURA  JOFEG S.A.  C.IMPRESORES,22  28660 BOADILLA DEL MONTE  Madrid Nº DOCUMENTO FECHA DOC. NºCLIENTE CADENA/SOCIO NºPROVEEDOR CLIENTE NIF CLIENTE HOJA -/- 3026103910 F.R.O.: 29.01.2026 29.01.2026 15287             EHLIS-26953 A28346245  1 /1 REMITIDO A Nº ALBARAN Nº PEDIDO CLIENTE Nº COPIAS  JOFEG S.A.  C/IMPRESORES S/N-URB.PRADO DEL ESPINO            28660 BOADILLA DEL MONTE 301321471 5748544 01 1 CODIGO ARTICULO/CONCEPTO CANTIDAD UNIT PRECIO U. CONDICIONES COMERCIALES IMPORTE NETO 504044   CEYS ULTRAUNICK LIQ 6G       12    5,37 30,00-%+18,00-%       36,99 504802   ESPUMAX AISLAR Y RELLENAR CANULA 750ML       12    8,66 30,00-%+14,00-%+20,00-%       50,05 505530   CEYS TRIPROTECT COC/BAÑ BLANCO CART       15    5,33 30,00-%+18,00-%+10,00-%       41,30 505531   CEYS TRIPROTECT COC/BAÑ TRANS CART       15    5,33 30,00-%+18,00-%+10,00-%       41,30 510110   ARALDITE STANDARD BLISTER 15+15ML_E        6    9,54 30,00-%+13,00-%       34,86 703211   PASO ELIMINA MOHO 500ML        6    5,36 30,00-%+18,00-%       18,46 705011   PASO DESATASCADOR GEL EXPRESS 1L       12    7,08 30,00-%+18,00-%       48,77 705012   PASO ELIMINA OLORES Y LIMPTUBERÍA1L        6   10,74 30,00-%+18,00-%       36,99 900904   CEYS PVC PRESIÓN-SANEAMIENTO 1L       12   16,47 30,00-%+14,00-%+10,00-%      107,08 900912   CEYS PVC TIXOTRÓPICO TAPÓN PINCEL 250ML       12    6,57 30,00-%+14,00-%+10,00-%       42,71 902813   AGUASTOP BANDA IMP. BUTILO TEJA 10CMX3M        6   12,44 30,00-%+14,00-%       44,93 902853   AGUASTOP CINTA EXTREMA TRANSPARENTE       12   12,75 30,00-%+14,00-%       92,11 Subtotal        595,55  Dto Cliente %   2,00-%  -11,91              Según la legislación vigente el poseedor final de los residuos de envases comerciales e industriales es el responsable de su correcta gestión. Registro productores de producto: REGAGE25e00030343978. PT.V/ENVA   3,22 € BASE % IVA/IGIC CUOTA     583,64  21,00      122,56 TOTAL DOCUMENTO       706,20 EUR   VIA DE PAGO Y VENCIMIENTO           I</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>2292</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>AC MARCA ADHESIVES, S.A.U.</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>40000778</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>S2228660B, A30261039, 02615287E, E30132147, 48544011C, G12537300, 99504802E, 05505530C, 30505531C, 30510110A, E69543000, 86703211P, 46705011P, 77705012P, 99900904C, 08900912C, 71902813A, 93902853A, E12127530, 14009211S, E2001191S, E00030343, A58364210, 11042026B, A08147191</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>595,55</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>583,64</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>...Folio 20, Hoja B-45.146, NIF. A-08147191 ...</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3026104579.PDF</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\3026104579.PDF</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2026-02-02T10:21:29</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4a7775780e13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>A08147191</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>JOFEG</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>45.146</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FACTURA  JOFEG S.A.  C.IMPRESORES,22  28660 BOADILLA DEL MONTE  Madrid Nº DOCUMENTO FECHA DOC. NºCLIENTE CADENA/SOCIO NºPROVEEDOR CLIENTE NIF CLIENTE HOJA -/- 3026104579 F.R.O.: 31.01.2026 31.01.2026 15287             EHLIS-26953 A28346245  1 /1 REMITIDO A Nº ALBARAN Nº PEDIDO CLIENTE Nº COPIAS  JOFEG S.A.  C/IMPRESORES S/N-URB.PRADO DEL ESPINO            28660 BOADILLA DEL MONTE 301322773 5748544 01 1 CODIGO ARTICULO/CONCEPTO CANTIDAD UNIT PRECIO U. CONDICIONES COMERCIALES IMPORTE NETO 900913   CEYS PVC TIXOTRÓPICO TAPÓN PINCEL 500ML       12   11,32 30,00-%+14,00-%+10,00-%       73,60 Subtotal         73,60  Dto Cliente %   2,00-%  -1,47              Según la legislación vigente el poseedor final de los residuos de envases comerciales e industriales es el responsable de su correcta gestión. Registro productores de producto: REGAGE25e00030343978. PT.V/ENVA   0,44 € BASE % IVA/IGIC CUOTA      72,13  21,00       15,15 TOTAL DOCUMENTO        87,28 EUR   VIA DE PAGO Y VENCIMIENTO           IMPORTE  Reposiciones A 60 DIAS COBRO DIAS 11 Y 21     11.04.2026                                                                                                                               BANCO: NºCTA. Registro Mercantil de Barcelona, Tomo 22.904, Folio 20, Hoja B-45.146, NIF. A-08147191 </t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>1295</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>AC MARCA ADHESIVES, S.A.U.</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>40000778</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>100</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>S2228660B, A30261045, 02615287E, E30132277, 48544011C, 10007360S, E00030343, A72132100, 11042026B, A08147191</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>73,60</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>72,13</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>...Folio 20, Hoja B-45.146, NIF. A-08147191 ...</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>F26-10463.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\F26-10463.pdf</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:45:04</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ba0aff090fca</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>F43389675</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>11/04/2026</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              Forma de Pago: TRANSFERENCIA 60 DIAS Vencimientos: 11/04/2026 - 1.791,71 € CIF: F43389675 POL. IND. ALBA BARENYS, 21 43480 VILA-SECA TARRAGONA www.elektro3.com elektro3@elektro3.com Telf. 977.792.945 Fax. 977.792.932 Nº Factura Data/Fecha Client/Cliente CIF: A28346245 Asesor Asesor de ventas Pag. F26/10463 22/01/26 430021328 Tlf: 916.330.298 220-1 220 ALBERTO FERNANDEZ MOYANO  1 JOFEG S.A.   POL. IND. PRADO DEL ESPINO -  CALLE IMPRESORES, Nº22  28660 BOADILLA DEL MONTE MADRID SubTotal D.C. Bases Cuota IVA % R.E. R.E. 1.476,68 4,07 0,00 0,00 1.480,75 21,00 310,96 R.A.E. D.P.P. I.V.A. Ref. EAN Article/Artículo Ut./Ud. Precio Dto. Imp. Dto. % Iva Total 00143 8425998001433 SEPARADOR METACRILATO 470 mm, 440 x 3 x 75 mm 3 2,0208 21 6,06 01160 8425998011609 GRIFO MONOMANDO DE LAVABO 2 16,7960 21 33,59 01163 8425998011630 GRIFO MONOMANDO EMPOTRADO DE DUCHA  5 22,7232 21 113,62 04200 8430763091991 AMBIENTADOR DE COCHE OLORES SURTIDOS 20 1,4219 21 28,44 08048 8717729114148 CANDADO ECONOMICO CON LLAVE BICICLETA COLORES SURTIDOS 2 2,1875 21 4,38 08250 5032227340015 S.OF. WD40 100ML 34209  24 2,2987 21 55,17 08253 5032227340343 S.OF.  WD40 500ml 34198 24 5,7100 21 137,04 08274 5032227347984 LIMPIA CADENAS SPECIALIST 400 ml 4 6,7671 21 27,07 08277 5032227340619 LIMPIA FRENOS SPECIALIST 500 ml 3 6,7671 21 20,30 08280 5032227340831 GRASA BLANCA DE LITIO 250ML 34453 3 EN 1 6 5,2055 21 31,23 08284 5032227346086 GRASA DE LITIO MULTIUSOS 3 EN 1 TUBO 150 g 12 3,8767 21 46,52 08349 8717729119594 LLAVES PARA TALADRO 10  Y 13 mm, PACK 2 uds 5 1,8125 21 9,06 08708 8425998087086 DECAPADOR 2000 W, 600°C 2 13,6440 21 27,29 08708C CANON RAEE 2 0,0654 21 0,13 15514 8414299684001 MACETA ESPAÑOLA CON MANGO DE FIBRA PARA ABRIR ROZAS 3 10,9000 21 32,70 16552 8425998165524 BROCA CILÍNDRICA CORTA HSS DIN 338N, 2 uds, Ø2,00 mm 5 1,2031 21 6,02 20116 8425998201161 ENROLLACABLES CON PROTECTOR TÉRMICO 3x1,5mm 50m 4 TOMAS 2 45,7299 21 91,46 20116C CANON RAEE 2 0,5900 21 1,18 21021 69142800095</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>11811</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>ELEKTRO3 S.C.C.L.</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>40000982</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>100</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>S11042026, F43389675, S2143480V, F97779294, 77792932N, F26104632, 30021328T, F91633029, 82201220A, N2228660B, E14766840, 10031096R, 98001433S, 98011609G, 98011630G, A52272322, 63091991A, S20142192, 29114148C, S22187521, 27340015S, 27340343S, 27347984L, 27340619L, 27340831G, N16520552, 27346086G, G12387672, 29119594L, S51812521, 98087086D, C21364402, 72908708C, E20065421, 99684001M, S31090002, 98165524B, 98201161E, S24572992, 14620116C, E20590021, 80009599L, 80006703D, 80005317A, 80008424M, G27749221, 80004334T, 80007809A, 80070438T, 77947947H, F55593000, G12243002, V20230000, 19681080F, 80024899M, G44070121, 31403483C, G62246221, 98361223L, 93636122C, E20100021, 98363807S, S61950021, 17036380C, S60110021, 63226521S, N12919002, 63227269S, N13121900, 94018457P, D30242862, 28638000C, S30004002, 94019256P, D30262862, 88638004C, S30001002, 94954427M, S20097142, 94338983C, S20002002, 23402775D, 23414150J, A24377021, 23408418R, G17688521, 23416611L, 23420557M, G15770521, 23402348S, 23411586H, S20083612, 23411593H, 23402133C, 23402249C, 23402287C, 23402294C, 23416185H, S21377021, 20080829C, A61563621, 20205024C, 46593089C, 74009382P, N55125021, 72000329R, 47025108P, A54416721, 23420632B, S52196721, 98910025F, 98910032F, 98910124F, 98910179C, 52115884C, 76170009P, G23426521, 76170801P, 76183405P, C22950021, 76173604P, 76174007P, 76184808P, 76184204P, E23426521, N11210549, 98054996S, 00102521P, V05101968, A21012026</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>... 11/04/2026 - 1.791,71 € CIF: F43389675 POL. IND. ALBA BARENYS, 21 43...</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>F26-14919.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\F26-14919.pdf</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2026-02-03T07:12:16</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>83d686d8db27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>F43389675</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>11/04/2026</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              Forma de Pago: TRANSFERENCIA 60 DIAS Vencimientos: 11/04/2026 - 653,51 € CIF: F43389675 POL. IND. ALBA BARENYS, 21 43480 VILA-SECA TARRAGONA www.elektro3.com elektro3@elektro3.com Telf. 977.792.945 Fax. 977.792.932 Nº Factura Data/Fecha Client/Cliente CIF: A28346245 Asesor Asesor de ventas Pag. F26/14919 31/01/26 430021328 Tlf: 916.330.298 220-1 220 ALBERTO FERNANDEZ MOYANO  1 JOFEG S.A.   POL. IND. PRADO DEL ESPINO -  CALLE IMPRESORES, Nº22  28660 BOADILLA DEL MONTE MADRID SubTotal D.C. Bases Cuota IVA % R.E. R.E. 538,30 1,79 0,00 0,00 540,09 21,00 113,42 R.A.E. D.P.P. I.V.A. Ref. EAN Article/Artículo Ut./Ud. Precio Dto. Imp. Dto. % Iva Total 08015 8718026582593 CANDADO BLINDADO 15X900 COLORES SURTIDOS 1 6,3542 21 6,35 08492 8425998084924 MEDIDOR LÁSER CON FUNDA 5,2 x 2,4 x 12,3 cm 3 16,0231 21 48,07 08492C CANON RAEE 3 0,0310 21 0,09 16556 8425998165562 BROCA CILÍNDRICA CORTA HSS DIN 338N, 2 uds, Ø3,50 mm 5 1,2031 21 6,02 21040 6914280006963 PUNTAS DESTORNILLADOR, JUEGO 13 PIEZAS (MÉTRICO) 2 4,0364 21 8,07 21067 6914280004587 TENAZAS FERRALLISTA, 225 mm 2 4,1382 21 8,28 21084 6914280008424 MARTILLO DE CANTERO CON MANGO DE FIBRA DE VIDRIO, 1000 g 1 7,7492 21 7,75 21502 6914280026510 LLAVE DE CARRACA Y VASOS ½ pulg, ACABADO MATE, JUEGO DE 12  PIEZAS, MÉTRICO 1 18,4792 21 18,48 24117 8425998241174 BROCHA REDONDA N°6 Ø6 mm  36 0,5082 21 18,30 24122 8425998241228 BROCHA REDONDA N°16 Ø16 mm  48 1,2250 21 58,80 36117 8425998361179 LINTERNA LLAVERO MULTIFUNCIONAL COB 6 W, MEDIDA 45 x 21,5 x 62  mm 6 2,6600 21 15,96 36117C CANON RAEE 6 0,1000 21 0,60 36161 8425998361612 LINTERNA LED DE LARGO ALCANCE WOLF PRO X3 1800 lm 20 W  RECARGABLE 2 23,7200 21 47,44 36161C CANON RAEE 2 0,1200 21 0,24 37503 5060063227108 NAVAJA SKELETONKNIFE PEQUEÑA MINIMALISTA 3 5,8714 21 17,61 38001 5000394017641 S.OF. PILA DURACELL PLUS  LR06 AA   (BLISTER 4 unid.) 20 1,9900 21 39,80 38001C CANON RAEE PILAS 20 0,0400 21 0,80 39947 8435223414426 PISTOLA PEGAMENTO SILICONA 11W 11MM JU11 </t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>6046</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>ELEKTRO3 S.C.C.L.</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>40000982</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>100</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>S11042026, F43389675, S2143480V, F97779294, 77792932N, F26149193, 30021328T, F91633029, 82201220A, N2228660B, E53830179, 10011342R, 26582593C, S16354221, 98084924M, 80708492C, E30031021, 98165562B, 80006963P, 80004587T, 80008424M, G17749221, 80026510L, 98241174B, 98241228B, 98361179L, 59636117C, E60100021, 98361612L, E22372002, 74436161C, E20120021, 63227108N, A35871421, 94017641S, D20199002, 98038001C, S20004002, 23414426P, A28950821, 98410136B, A23879421, 77641013C, E20030021, 98470079C, 98470215C, 98471908C, 98910018F, 77947947H, F55593000, G41430021, V20230000, 19681111F, 17300861P, 17300885P, 83057548B, 10141248L, N11214716, 98471625S, 11000021P, V05102281, A30012026, 00000001C, N12136122, 98361223L, 96836122C, E10100021, 00000002A, V00396434, N12190927, 75138141E, S12812521, V00396433</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>...s: 11/04/2026 - 653,51 € CIF: F43389675 POL. IND. ALBA BARENYS, 21 43...</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>F26-16794.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\F26-16794.pdf</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2026-02-05T10:25:13</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>29aca3e70934</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>F43389675</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>11/04/2026</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              Forma de Pago: TRANSFERENCIA 60 DIAS Vencimientos: 11/04/2026 - 397,27 € CIF: F43389675 POL. IND. ALBA BARENYS, 21 43480 VILA-SECA TARRAGONA www.elektro3.com elektro3@elektro3.com Telf. 977.792.945 Fax. 977.792.932 Nº Factura Data/Fecha Client/Cliente CIF: A28346245 Asesor Asesor de ventas Pag. F26/16794 04/02/26 430021328 Tlf: 916.330.298 220-1 220 ALBERTO FERNANDEZ MOYANO  1 JOFEG S.A.   POL. IND. PRADO DEL ESPINO -  CALLE IMPRESORES, Nº22  28660 BOADILLA DEL MONTE MADRID SubTotal D.C. Bases Cuota IVA % R.E. R.E. 327,71 0,61 0,00 0,00 328,32 21,00 68,95 R.A.E. D.P.P. I.V.A. Ref. EAN Article/Artículo Ut./Ud. Precio Dto. Imp. Dto. % Iva Total 08792 8425998087925 BOMBA DRENAJE AGUAS SUCIAS 400 W 4 24,9900 21 99,96 08792C CANON RAEE 4 0,1518 21 0,61 15521 8414299691276 PALETA SOLDADA CATALANA, DE CHAPA DE ACERO TRATADA CON  MANGO BIMATERIAL ERGONÓMICO PARA UNA MAYOR COMODIDAD.  VT41B VIAT 4 6,2429 21 24,97 21127 6914280000237 TIJERA CORTATUBOS 42 mm 6 5,8730 21 35,24 21134 6914280015521 CIZALLA 350 mm 2 11,0995 21 22,20 21135 6914280004334 TIJERA DE ELECTRICISTA 167 x 80 x 28 mm 4 7,0000 21 28,00 21231 6914280002538 PISTOLA SELLADORA TRABAJO PESADO 230 mm 2 10,4454 21 20,89 24116 8425998241167 PALETINA TRIPLE STANDARD 50 mm 36 0,7493 21 26,97 24176 8425998241761 RODILLO DE POLIAMIDA DE RECAMBIO 18CM PARA REF. 24161 5 1,1870 21 5,94 39167 8435223409798 DESTORNILLADOR PUNTA PLANA AISLADO 3,0 x 100 mm 4 1,3607 21 5,44 39677 8435223401976 CEPILLO CON MANGO DE PLASTICO DE ACERO INOXIDABLE 4 2,1967 21 8,79 39689 8435223402317 CEPILLO HOBBY COPA CON ESPIGA Ø75 mm 2 1,8852 21 3,77 87814 8425998878141 CORDEL RAFIA BLANCO 600/1 CALIBRE 1,7 mm x 120 m  5 1,3607 21 6,80 87818 8425998878189 CORDEL YUTE NATURAL 3 CABOS CALIBRE 3,5 mm x 110 m 3 1,8852 21 5,66 87819 8425998878196 CORDEL YUTE NATURAL 3 CABOS CALIBRE 3,5 mm x 200 m 4 3,4098 21 13,64 91003 8425998910032 FLEXÓMETRO ABS STANDARD, 5 m x 25 mm  4 2,9226 21 11,69 99534 8711252082646 CANDADO DE CABLE D12MM 65CM </t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>3007</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>ELEKTRO3 S.C.C.L.</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>40000982</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>100</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>S11042026, F43389675, S2143480V, F97779294, 77792932N, F26167940, 30021328T, F91633029, 82201220A, N2228660B, E32771061, 21006895R, 98087925B, W42499002, 99608792C, E40151821, 99691276P, 80000237T, 80015521C, 80004334T, 80002538P, 98241167P, 98241761R, F24161511, 23409798D, 23401976C, E42196721, 23402317C, 98878141C, 98878189C, 98878196C, 98910032F, 52082646C, S32581821, N11210058, 98005875F, S10410010, 00004121P, V05102444, A04022026, 77947947H, F55593000, G35430021, V20230000</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>...s: 11/04/2026 - 397,27 € CIF: F43389675 POL. IND. ALBA BARENYS, 21 43...</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Factura generada en proceso masivo  5923_8.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura generada en proceso masivo  5923_8.pdf</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:00:29</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ed072696b4dc</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>B54192323</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>CLIENTE</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>06/02/2026</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>3.138</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nº CLIENTE: 43009112 POL.IND.PRADO DEL ESPINO,C/IMPRESORES,22 28660 - BOADILLA DEL MONTE MADRID - España JOFEG,S.A. FACTURA Nº 01/2601814 FECHA FACTURA: 06/02/2026  NIF CLIENTE: A28346245 TLF: 91.6330298 UDS N/ CÓDIGO REFERENCIA PRECIO IMPORTE %DTO CAJAS NETO %PIC %PROMO WEB  POL.IND.PRADO DEL ESPINO,C/IMPRESORES,22 - 28660 BOADILLA DEL MONTE ( SU PEDIDO Nº: PP22425    ALBARÁN Nº: 2601823   FECHA: 05/02/26 AGENCIA: GRUPO TRANSAHER SL VEND: NAVIA  SIFÓN EXTENSIBLE TUERCA LOCA CON BOCA 8422440500773 T-39 50077  1 / 60 1,10  1,10 66,00 8474407443821 1½ x Ø32-40  2 MANGUITO INODORO EXTENSIBLE 8422440507024 T-118 50702  3 / 36 5,20  4,68 168,48 8474407448239 Ø90 x Ø90-110 / 230-570  2 +10,00 BOTE SIFÓNICO EXTRABAJO CON TAPA CÓNICA 8422440506072 T-85C 50607  4 / 25 13,46 62,00+10,00  4,60 115,08 8474407447348 Ø110 / Ø50-40 x Ø40-32  1 PACK PROMO: MANG. INODORO (ENE-FEB/2026) 2026MI  5 / 1 0  0,00 0,00 IMPORTE BRUTO  349,56 € PROMOCIONES APLICADAS  7 PROMO: MANG. WC (ENE-FEB/26) BASE %IVA € IVA TOTAL %REC. € REC  422,97 €  0,00 0,00  73,41 21,00  349,56  422,97 € TOTAL OPERACIÓN DE CRÉDITO ASEGURADA Forma de Pago: CONFIRMING A 60 CAJA DE AHORROS Y PENSIONES DE BARCELONA  ES4921002025770***** Banco: Cuenta: VENCIMIENTOS 20/04/26  422,97 PARA TODAS LAS CUESTIONES RELACIONADAS CON ESTA OPERACIÓN, LAS PARTES IMPLICADAS RENUNCIAN AL FUERO QUE PUDIERA CORRESPONDERLES SOMETIENDOSE A LOS JUZGADOS Y TRIBUNALES DE ALICANTE PARA LA RESOLUCIÓN DE CUALQUIER CONFLICTO DEVENIDO DE DICHA COMPRAVENTA. EL IMPAGO A SU VENCIMIENTO DE CUALQUIER EFECTO O RECIBO, CONLLEVARÁ LA INMEDIATA SUSPENSIÓN DE SUMINISTROS Y SERVICIOS. HIDROTECNOAGUA, S.L. CIF: B54192323 AVDA. DEL RODALET, Nº20 - 03690 SAN VICENTE DEL RASPEIG - ALICANTE (ESPAÑA) TLF +34 965 672 611 - FAX +34 965 663 367 - MAIL info@hidrotecnoagua.com WEB www.hidrotecnoagua.com HIDROTECNOAGUA, S.L., inscrita en el Registro Mercantil de Alicante , Tomo 3.138, Folio 15, Hoja A-103804, Inscripción 1, C.I.F.: B54192323 Página 1 de 1 </t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>1989</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>HIDROTECNOAGUA,S.L</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>40008828</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>100</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>E43009112, S2228660B, N01260181, A06022026, F91633029, N2601823F, A84224405, 74438211X, E84224405, 44823990X, 57021000B, C50607425, 81105040X, B20262026, C42297000, 95642297T, S49210020, S20042642, B54192323, N2003690S, F34965672, 65663367M</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>...OS. HIDROTECNOAGUA, S.L. CIF: B54192323 AVDA. DEL RODALET, Nº20 - 036...</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Factura STIGA SPA - 1240051381.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura STIGA SPA - 1240051381.pdf</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-02-04T22:01:30</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>98bba5a05895</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>W0028493E</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>667,92</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STIGA SpA Miniparc II c/ Caléndula, 95 - Edif. O 28109 - El Soto de La Moraleja Alcobendas (Madrid) ES W0028493E Original Factura Num.doc.de factur. 1026000662 Fecha 04.02.2026 IVA Cust. ESA28346245 Nuestro IVA no ESW0028493E Pago Ref 1240051381 Página 1/1   Condiciones de pago E33B Transferencia 90/120/150 fin mes Banco Banco Santander S.A. IBAN  ES61 0049 2891 3521 1414 6786      Incoterms DAP Entregado en lugar - . Cliente                         10034100 JOFEG S.A. C/ IMPRESORES, 22 E-28660 BOADILLA DEL MONTE Pagador                        10034100 JOFEG S.A. C/ IMPRESORES, 22 E-28660 BOADILLA DEL MONTE Dirección de envío10034100 JOFEG S.A. C/ IMPRESORES, 22 E-28660 BOADILLA DEL MONTE Dirección de  JOFEG S.A.--C/ IMPRESORES, 22-BOADILLA DEL MONTE-28660-ESAC / No: 10034100  VAT-N: ESA28346245 Núm. entrega: 91457310 de  04.02.2026 Pedido: 2400119346 de  09.12.2025 Pedido cliente: Precampaña 2026 de  09.12.2025 Nuestra Paula  Jara Artículo Material Descripción Cantidad / Unidad Precio unitario Valor IVA 000010 2L0482248/ST1 Combi 48 S -  ST 140 OHV 3 PI                184,00           552,00 A2 EAN 8008984864436 País de origen: Slovakia Artículos totales 3 Embalaje Palets / Cajas Volumen 0,678 M3 A2 Ventas en régimen general  21% Peso neto: 84,000 KG Importe del IVA       21%                   115,92 Peso bruto 90,900 KG Total imponible               552,00  Fecha de vencimiento : Hasta el 31.05.2026 : 222,64 EUR Transferencia 90 días fin mes Hasta el 30.06.2026 : 222,64 EUR Transferencia 120 días fin mes Hasta el 31.07.2026 : 222,64 EUR Transferencia 150 días fin mes Moneda EUR Fecha de moneda Cantidad total               667,92  Número de Registro de Productores de Productos: ENV/2023/000012007 </t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>1727</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>STIGA IBERICA</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>40001021</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>100</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>W0028493E, R10260006, A04022026, F12400513, A90120150, S61004928, E10034100, R10034100, 10034100J, 10034100V, A91457310, E04022026, 00119346D, E09122025, A0000102L, 40055200A, N80089848, A2111592P, 02622264E, V20230000</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>84,000</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>...raleja Alcobendas (Madrid) ES W0028493E Original Factura Num.doc.de f...</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Factura_5060628633_20260127.PDF</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060628633_20260127.PDF</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:48:59</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>29b41789eb06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>B84072032</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Factura n° 5060628633</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>27.01.2026</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>4,23
+2 67</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Factura n° 5060628633 Página 1 / 2 Fecha 27.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente PED_MAIL_OCEAN_26012 Fecha de pedido cliente 26.01.2026 Confirmación de pedido n° 0053458305 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4933498384 M18FHET60G2-0 RECORT 1 U.    809,51 / 1 ASETOS XXX 84672920 4058546522537 7,434 KG CN Precio 809,51 Nota de Entrega n° 0103482148 fecha 26.01.2026, Ref. del ped. cliente PED_MAIL_OCEAN_26012026 fecha 26     20 4933479987 M18F2BL-0 SOPLADOR D 1 U.    788,13 / 1 E ALTA POTENCIA M18 84145925 4058546377816 6,064 KG CN Precio 788,13 Nota de Entrega n° 0103482148 fecha 26.01.2026, Ref. del ped. cliente PED_MAIL_OCEAN_26012026 fecha 26     30 4932498551 M18MPC6 CARGADORA IN 1 U.    336,90 / 1 2 85044060 4058546524203 4,536 KG CN Precio 336,90 Dto. Base 25% -84,23 Descuento Espec. 100% -252,67 Precio neto 0,00 Nota de Entrega n° 0103482148 fecha 26.01.2026, Ref. del ped. cliente PED_MAIL_OCEAN_26012026 fecha 26 Página 2 / 2 Factura n° 5060628633 Techtronic Industries Iberia S.L Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax :</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>2854</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>40001020</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>100</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>N50606286, A27012026, E04000540, E26012026, N00534583, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, 25377434K, N01034821, A26012026, N26012026, A26204933, 78166064K, A26304932, U33690128, 42034536K, C10025267, E40493249, 78570277K, C1002017P</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>6,90</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>6,90
+4,23</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Factura_5060629745_20260130.PDF</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060629745_20260130.PDF</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2026-01-30T01:26:25</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>a28709c16c83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>B84072032</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Factura n° 5060629745</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>30.01.2026</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura n° 5060629745 Página 1 / 1 Fecha 30.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente 27ene26 JOFEG Fecha de pedido cliente 27.01.2026 Confirmación de pedido n° 0053467547 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4932471096 BROCA MULTIMATERIAL 5 U.      4,70 / 1 6X100 1/4" HEX. 82075090 4058546287245 0,100 KG CN Precio 23,50 Dto. Base 55% -12,93 + dis. deal vol. % 15% -1,59 Precio neto 8,98 Nota de Entrega n° 0103502061 fecha 29.01.2026, Ref. del ped. cliente 27ene26 JOFEG fecha 27.01.2026 Total antes impuestos EUR 8,98 IVA 21% EUR 1,89 Total IVA incl. EUR 10,87 Condiciones de pago 30 días fecha factura Incoterms DAP BOHADILLA DEL MONTE Fecha de vencimiento: 28.02.2026  </t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>1440</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>40001020</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>100</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>N50606297, A30012026, E04000540, E27012026, N00534675, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493247, 72450100K, N01035020, A29012026, A27012026</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>8,98</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Factura_5060630302_20260131.PDF</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060630302_20260131.PDF</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2026-01-31T01:59:49</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>b27e6e75d5f0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>B84072032</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Factura n° 5060630302</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>31.01.2026</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura n° 5060630302 Página 1 / 1 Fecha 31.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente 27ene26 JOFEG Fecha de pedido cliente 27.01.2026 Confirmación de pedido n° 0053467547 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4932471097 BROCA MULTIMATERIAL 3 U.      5,30 / 1 6X150 1/4" HEX. 82075090 4058546287252 0,090 KG CN Precio 15,90 Dto. Base 55% -8,75 + dis. deal vol. % 15% -1,07 Precio neto 6,08 Nota de Entrega n° 0103501516 fecha 30.01.2026, Ref. del ped. cliente 27ene26 JOFEG fecha 27.01.2026 Total antes impuestos EUR 6,08 IVA 21% EUR 1,28 Total IVA incl. EUR 7,36 Condiciones de pago 30 días fecha factura Incoterms DAP BOHADILLA DEL MONTE Fecha de vencimiento: 28.02.2026  </t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>1438</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>40001020</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>100</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>N50606303, A31012026, E04000540, E27012026, N00534675, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493247, 72520090K, N01035015, A30012026, A27012026</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>6,08</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Factura_5060630303_20260131.PDF</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_5060630303_20260131.PDF</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2026-01-31T02:00:11</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>43a93c412c60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>B84072032</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Factura n° 5060630303</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>31.01.2026</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura n° 5060630303 Página 1 / 1 Fecha 31.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente PEDIDO_TEL_ALFREDO_1 Fecha de pedido cliente 12.01.2026 Confirmación de pedido n° 0053384851 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4933498149 M18MDTL-0 MULTI-DIRE 1 U.    161,50 / 1 CTIONAL LIGHT  IN2 85131000 4058546513092 3,630 KG CN Precio 161,50 Nota de Entrega n° 0103513419 fecha 30.01.2026, Ref. del ped. cliente PEDIDO_TEL_ALFREDO_12012026 fech Total antes impuestos EUR 161,50 IVA 21% EUR 33,92 Total IVA incl. EUR 195,42 Condiciones de pago 30 días fecha factura Incoterms DAP BOHADILLA DEL MONTE Fecha de vencimiento: 28.02.2026  </t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>1391</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>40001020</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>100</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>N50606303, A31012026, E04000540, E12012026, N00533848, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, N28513100, 30923630K, N01035134, A30012026, 12012026F</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Factura_ESB41956970_202620665.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_ESB41956970_202620665.pdf</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:49:13</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4e8011456d04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>B41956970</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>23/01/2026</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>472,63</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONTHIDRA S.L. Pol. Ind . Servialsa, C/ B , nº 25 ESPAÑA Cliente: SEVILLA GINES 41960   B41956970 JOFEG, S.A. CIF.: Fax: Teléfono: 954 71 77 36 954 71 71 90 e-Mail: ccabrera@cohisa.com PG/PRADO DEL ESPINO C/IMPRESORES BOADILLA DEL MONTE FACTURA 28660 MADRID-ESPAÑA A28346245 CIF/DNI: Cliente Fecha Serie Número 1 Pag 23/01/2026 000202 20665 Artículo Descripción Unidades Precio Importe(EUR)  / 30.453 Albarán nº Pedido nº 23/01/2026 PP/22360 de fecha 125,8000 Contador turbina tangencial modelo WT DN50, Q3-40m3/h, R40, Tª30 Long-200mm, PN16, Pre-equipado 100l/imp Nº .- 2546007200 - 2546007239 2,00 251,60 CWT040040050 139,0000 Contador turbina tangencial modelo WT DN80 Q3-63m3/h, R40, Tª30, Long-225mm, PN16, Pre-equipado 100l/imp Nº .- 2646000968 1,00 139,00 CWT063040080 Base Importe neto Cuota IVA %IVA 390,60 82,03 390,60 21,00 Forma de pago Confirming 60 d.f.f. Líquido(EUR): 472,63 BANCO POPULAR ESPAÑOL, S.A. BSCHESMM CAMPANA IBAN.: ES4400753004720600484445 Vencimientos 01/04/2026 472,63 Inscrita en R.M. de Sevilla, Tomo 2814, libro de la Sección de Sociedades 0, folio 194,Seccion 8, Hoja nº SE 3557 Inscripción 1ª - C.I.F. B41956970 </t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>1147</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>CONTHIDRA, S.L.</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>40008034</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>100</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>B41956970, 54717190E, G23012026, 20220665A, N23012026, A1258000C, N25460072, 20025160C, 01390000C, N26460009, 10013900C, 63040080B, A39060820, 90602100F, S44007530, 00484445V, S01042026</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>390,60</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>...liente: SEVILLA GINES 41960   B41956970 JOFEG, S.A. CIF.: Fax: Teléfo...</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FM-014122.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\FM-014122.pdf</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:47:33</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>f6815e423171</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>A08607913</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Raz</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>26-01-2026</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>40,41</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CANALETAS, S.A. RONDA DE LLEVANT, 10 08820 EL PRAT DE LLOBREGAT BARCELONA ESPAÑA NIF: A08607913 Tel.: 902117096 - Fax.: 934350604/902888124 Proveedor: 40000068   FACTURA Razón social JOFEG, S.A. IMPRESORES, 22 - ESQUINA CARRETEROS, S/N URBANIZACION PRADO DEL ESPINO 28660 BOADILLA DEL MONTE MADRID ESPAÑA NIF: A28346245 Dirección Envio Factura JOFEG, S.A. IMPRESORES, 22 - ESQUINA CARRETEROS, S/N URBANIZACION PRADO DEL ESPINO 28660 BOADILLA DEL MONTE MADRID ESPAÑA NIF: A28346245 Factura Fecha factura Divisa FM-014122 26-01-2026 EUR Portes Medio Transporte Cliente Pagados INCLUIDOS EN FACTURA 05667500     Inscrita en el registro Mercantil de Barcelona, Tomo 4327, Libro 3.658, Secc 2ª, Folio 8, Hoja 45.787, Inscrip.1ª C.I.F. A-08-607913 Albarán Nº Pedido Remitido por Dirección de Entrega AM-015796 PP/22385 NUESTROS MEDIOS JOFEG, S.A. IMPRESORES, 22 - ESQUINA CARRETEROS, S/N * URB. PRADO ESPINO 28660 BOADILLA DEL MONTE MADRID ESPAÑA Artículo Descripción Número de serie Cantidad Precio % Importe neto 11051101-0 GRIFO PLASTICO 3/8 AF (UN)   2,00 12,00 -15,00 20,40 Total Portes Dto. General Dto. Pronto Pago 20,40 13,00 0,00 0,00 Impuestos Descripción Base imponible % Impuesto Cuota impuesto Nacional ordinario 33,40 21,00 7,01 Total factura   40,41 Condiciones de pago Tipo Efecto Fecha vencimiento Importe IBAN TRANSFERENCIA 26-01-2026 40,41 ES1100810199500001716082 CANALETAS, AGRADECE SU CONFIANZA. MÁS DE 50 AÑOS DE EXPERIENCIA EN FUENTES DE AGUA. Operación asegurada por Crédito y Caución </t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>1504</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>CANALETAS, S.A.</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>40000068</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>100</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>A08607913, 02117096F, 02888124P, R40000068, 26012026E, A05667500, 10511010G, N20012001, 02100701T, A26012026, S11008101, 01716082C</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>...OBREGAT BARCELONA ESPAÑA NIF: A08607913 Tel.: 902117096 - Fax.: 93435...</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FV1002260117076_290126.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\FV1002260117076_290126.pdf</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2026-01-30T08:57:44</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>49077bee92c6</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>B67827543</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Espa</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>29/01/2026</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>24,00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura España velilla-group.com ESB67827543 Velilla Group Europe S.L.U. 28823 COSLADA.  Madrid Juan de la Cierva, 19 Autorización Telefónica  C/ Impresores 0 FV1002260117076 151431 29/01/2026 Fecha  TVA  Enviado a Bultos Dirección  Razón social  Nº de cliente  28660 , BOADILLA DEL MONTE Madrid, España Factura nº Referencia PP22409 ESA28346245 JOFEG, S.A. Calle Impresores, 22 JOFEG, S.A.  1 CONCEPTO CANTIDAD PRECIO SERIE/COLOR IMPORTE Albarán nº  AVC10022601018223 29/01/2026 Fecha  Nuestro pedido  Observaciones  Su pedido  Entregar el  PP22409 29/01/2026 WEB10022601010892 XL 15  7,22 19000 01 TRAJE LLUVIA AZUL MARINO  15,00  108,27 Importe bruto  108,27 EUR  6,00  6,00   Portes EUR  114,27 Base imponible EUR Condiciones de pago  Vencimiento  Forma de pago  Importe  11/04/2026 Confirming EUR  138,27 Base imponible Tipo IVA  21,00  114,27  24,00 Nacional Normal % EUR IBAN: ES98 0128 7705 2005 0050 0936 BIC: BKBKESMMXXX Base imponible  114,27  138,27 Total  EUR Impuestos  24,00 Importe pagado Página 1 / 1  CONDICIONES DE LA VENTA: La mercancía viaja en todo caso por cuenta y riesgo del comprador. No se admiten  reclamaciones pasados los ocho días del recibo de la mercancía. Todo comprador, en caso de litigio, con renuncia de su fuero  propio si lo tuviere, se somete a la jurisdicción de los tribunales y juzgados de Madrid. ENV/2023/000018636 </t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>1361</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>VELILLA GROUP EUROPE, S.L.</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>40001038</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>100</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>B67827543, V10022601, 29012026F, C10022601, P22409290, B10022601, 21900001T, E11042026, A21001142, S98012877, 00500936B, E11427138, V20230000</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>...ra España velilla-group.com ESB67827543 Velilla Group Europe S.L.U. 2...</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FVA26-1381.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\FVA26-1381.pdf</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2026-02-05T10:25:39</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5d5944452dc3</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>F43389675</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>11/04/2026</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>47,04</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forma de Pagament/Forma de Pago: TRANSFERENCIA 60 DIAS Venciments / Vencimientos: 11/04/2026        -47,04 € ESTE ABONO SE LE DESCONT. DE LA FACT. Nº                                DE                       -                          =                          € ELEKTRO3 S.C.C.L. CIF: F43389675 POL. IND. ALBA BARENYS, 21 43480 VILA-SECA TARRAGONA www.elektro3.com elektro3@elektro3.com Telf. 977.792.945 Fax. 977.792.932 Nº Factura Data/Fecha Client/Cliente CIF: A28346245 Asesor Asesor de ventas Pag. FVA26/1381 04/02/26 430021328 Tlf: 916.330.298 220-1 220 ALBERTO FERNANDEZ MOYANO  1 JOFEG S.A. Asociado: POL. IND. PRADO DEL ESPINO - CALLE IMPRESORES, Nº22  28660 BOADILLA DEL MONTE MADRID Total D.C. Bases % R.E. R.E. -38,88 0,00 0,00 0,00 -38,88 21,00 -8,16 R.A.E. D.P.P. I.V.A. Total IVA Ref. EAN Article/Artículo Ut./Ud. Precio Dto. Imp. Dto. % Iva Total 00000003 ****** ABONO ****** 1 21 39590 8435223410664 SIERRA DE COPA BIMETAL Ø27 mm -2 3,8197 21 -7,64 39607 8435223410831 SIERRA DE COPA BIMETAL Ø57 mm -2 7,0820 21 -14,16 39613 8435223410893 SIERRA DE COPA BIMETAL Ø68 mm -2 8,5410 21 -17,08 Pedido: ABF/18777 de fecha 02/02/2026 0 Observacions/Observaciones: ESTE ABONO CORRESPONDE A LA FACTURA F25/157924  Nº Bultos: Kgs: Nº Ref: TOTAL FACTURA -47,04 € Conforme a lo establecido en la Ley Orgánica 15/1999, de Protección de Datos de Carácter Personal (LOPD), le informamos que los datos personales proporcionados son confidenciales y forman parte de los ficheros de titularidad de  , con la finalidad de agilizar nuestra gestión y servicio, así como proporcionarle información referente a  nuestros productos y servicios, salvo que nos manifieste lo contrario. Puede ejercer sus derechos de acceso, cancelación, rectificación y en su caso, oposición, enviando un escrito acompañando una fotocopia del D.N.I. a la siguiente dirección:        . ELEKTRO3 S.C.C.L. POL. IND. ALBA BARENYS, 21 43480 VILA-SECA TARRAGONA TODAS LAS RECLAMACIONES SOBRE EL CONTENIDO DE LA ENTREGA NO SE PODRÁN </t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>2411</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>ELEKTRO3 S.C.C.L.</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>40000982</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>100</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>S11042026, F43389675, S2143480V, F97779294, 77792932N, A26138104, 30021328T, F91633029, 82201220A, N2228660B, E38880000, 82100816R, 00000003A, 23410664S, 23410831S, 23410893S, 10211708P, A02022026, F25157924</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>...     € ELEKTRO3 S.C.C.L. CIF: F43389675 POL. IND. ALBA BARENYS, 21 43...</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ILAB5C71.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\ILAB5C71.pdf</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2026-01-22T10:40:31</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>32a992ef0463</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>B79366654</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>JOFEG</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>162,75</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  FACTURA JOFEG, S.A. CL - Impresores, 22 Urb. Prado del Espino -  -  28660 - BOADILLA DEL MONTE Nº Factura : A / 2.578 Fecha : 11/09/2025 MADRID (ESPAÑA) Nº Cliente : 028066 ESA28346245 Pág. : 1 Ntro. Nº Proveedor: 40000480 Cantidad %Dto Descripción Artículo Referencia Total  Precio Tarifa Base PP/21971    05/09/2025 Albaran nº SU PEDIDO: de fecha:  / 4.138 20,00 1040050006 Manguito, 50 mm 55,00 3,64 32,76 5,00 1040075041 Reducción M/H, 75/25 mm 55,00 8,55 19,24 4,00 1060063055 Te reducida, 63 x 50 x 63 mm 55,00 13,03 23,45 15,00 1080050045 Codo 90º H/H, 50 mm 55,00 6,35 42,86 5,00 1070025010 Entronque recto RH, 25 x 1/2 " , hex. 55,00 8,42 18,94 137,25 Importe 2,75 Base Imponible %Dto. Adc.  134,50 2,00 21,00 IVA % 28,25 Vencimientos Forma de pago TOTAL FACTURA Importe 20/12/2025 162,75 162,75 Confirming 85 ddff € Aquatherm Ibérica S.L.  www.aquatherm.es   info@aquatherm.es BARCELONA Av. de la Marina, 12 08830 Sant Boi ESPAÑA Tel. +34 93 630 74 60 info@aquatherm.es   www.aquatherm.es PORTO Rua Professora Angélica Rodrigues, 46, sala 4 4405-269 Vila Nova de Gaia PORTUGAL Tel. +351 968906259 geral@aquatherm.pt  www.aquatherm.pt MADRID C/ Carpinteros, 15 28320 Pinto ESPAÑA Tel. +34 91 380 66 08 info@aquatherm.es   www.aquatherm.es BANCO SANTANDER, S.A. | IBAN: ES46 0049 1920 1329 1019 3622   SWIFT:  BSCHESMMXXX BBVA -  Banco Bilbao Vizcaya Argentaria S.A | IBAN: ES61 0182 5714 9102 0150 5301   SWIFT:  BBVAESMMXXX BANKINTER, S.A. | IBAN: ES45 0128 7706 7205 0000 1585    CODIGO SWIFT:  BKBKESMMXXX -Inscrita en el Registro Mercantil de Madrid Tomo 21, Folio 7, Hoja M-445, Inscripción 1ª CIF B79366654- </t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>1625</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>AQUATHERM IBERICA, S.L.</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>40000480</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
+        <v>100</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>A11092025, R40000480, P21971050, A41382000, 40050006M, 40075041R, 60063055T, 80050045C, 70025010E, C13450200, E20122025, 27516275C, A1208830S, A44405269, 68906259G, S1528320P, S46004919, 10193622S, S61018257, 01505301S, S45012877, 00001585C, B79366654</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>...oja M-445, Inscripción 1ª CIF B79366654- ...</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ILAE25A.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\ILAE25A.pdf</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2026-02-03T12:44:39</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>cecbb36e08ab</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>A43009695</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1.639,44</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>INYECTOMETAL S.A.U  PASEO COLÓN, 29 2º1    12500 VINAROZ ESPAÑA Castelló CIF.: A43009695 FACTURA 977 597 064 Teléfono: Serie eMail: facturación@inyectometal.com Número Fecha Cliente CIF/DNI 03/02/2026 Origen de la mercancía : España A A28346245 1027 00525 Facturación :  Fiscal :   JOFEG, S.A. () JOFEG, S.A. C/ IMPRESORES, 22 PE PRADO DEL ESPINO BOADILLA DEL MONTE 28660 BOADILLA DEL MONTE 28660 MADRID MADRID 916330298 28660 C/ IMPRESORES, 22 PE PRADO DEL ESPINO BOADILLA DEL MONTE Envio Mercancia : MADRID Dto. Unidades Descripción Precio Importe(EUR) Artículo 03/02/2026 Su pedido A / 1.058 de fecha Albarán nº Pedido nº A/5.285 de fecha 12/08/2025 Su pedido 21943 130,53 5106 5,00 VALVULA ESFERA H-H 2 1/2 7% 28,0700    Código HS-8481804090 Pedido nº A/6.664 de fecha 14/10/2025 130,53 5106 5,00 VALVULA ESFERA H-H 2 1/2 7% 28,0700    Código HS-8481804090 Pedido nº A/649 de fecha 30/01/2026 Su pedido PP/22412 49,38 5100 30,00 VALVULA ESFERA H-H 1/2 7% 1,7700    Código HS-8481804090 147,01 5101 64,00 VALVULA ESFERA H-H 3/4 7% 2,4700    Código HS-8481804090 150,29 5102 40,00 VALVULA ESFERA H-H 1'' 7% 4,0400    Código HS-8481804090 62,38 5103 12,00 VALVULA ESFERA H-H 1 1/4 7% 5,5900    Código HS-8481804090 164,05 5104 20,00 VALVULA ESFERA H-H 1 1/2 7% 8,8200    Código HS-8481804090 834,17 suma y sigue ... 1 Página : INYECTOMETAL S.A.U  PASEO COLÓN, 29 2º1    12500 VINAROZ ESPAÑA Castelló CIF.: A43009695 FACTURA 977 597 064 Teléfono: Serie eMail: facturación@inyectometal.com Número Fecha Cliente CIF/DNI 03/02/2026 Origen de la mercancía : España A A28346245 1027 00525 Facturación :  Fiscal :   JOFEG, S.A. () JOFEG, S.A. C/ IMPRESORES, 22 PE PRADO DEL ESPINO BOADILLA DEL MONTE 28660 BOADILLA DEL MONTE 28660 MADRID MADRID 916330298 28660 C/ IMPRESORES, 22 PE PRADO DEL ESPINO BOADILLA DEL MONTE Envio Mercancia : MADRID Dto. Unidades Descripción Precio Importe(EUR) Artículo 130,53 5106 5,00 VALVULA ESFERA H-H 2 1/2 7% 28,0700    Código HS-8481804090 117,18 5111 30,00 VALVULA ESFER</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>3666</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>INYECTOMETAL,S.A.</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>40001070</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>100</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>N29211250, A43009695, A97759706, 02700525F, D91633029, 03022026S, A12082025, 35106500V, H21272807, S84818040, A14102025, A30012026, P22412493, 51003000V, H12717700, 51016400V, H34724700, 51024000V, H1740400C, 51031200V, H11475590, 51042000V, H11278820, 51113000V, H1742000C, 51122100V, H12718300, 51152000V, H12719400, 51171200V, H1738700C, 37945165A, 20085166A, A13549121, 53135491V, S11042026, E2016679D, C75764389</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>1.354,91</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>...VINAROZ ESPAÑA Castelló CIF.: A43009695 FACTURA 977 597 064 Teléfono:...</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>inv-6830047093.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\inv-6830047093.pdf</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2026-02-02T14:09:32</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7e7625d3772a</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>B95661609</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Identificaci</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>SUPEREGO TOOLS, S.L.U. – P.O. Box 117 – 48200 Durango - Spain 1 / 2 SUPER EGO TOOLS, S.L.U.   Ctra Durango-Elorrio km 2  48220 Abadiño (Bizkaia)  España     Nacional Tel:  +34 94 6210101  Nacional Fax: +34 94 6210102  Export Tel.:     +34 946210130  Export Fax:     +34 946210131  www.super-ego.es     Nº Identificación Fiscal : ES B95661609 SUPER EGO TOOLS, S.L.U.  Ctra Durango-Elorrio km 2  48220 Abadiño (Bizkaia)  España  CIF: ESB95661609  Phone: +34 946210101  Fax: +34 946210102  Export: +34 946210130  www.super-ego.es  Email: ventas@super-ego.com SUPER EGO TOOLS, S.L.U.  Ctra Durango-Elorrio km 2  48220 Abadiño (Bizkaia)  España     Phone: +34 946210106  Fax: +34 946210133     www.super-ego.es  Email: sat@super-ego.com Tipo Sociedad   Sociedad Limitada Unipersonal     Localidad   Abadiño (Bizkaia)     Registración   Registro Mercantil de Bizkaia, Tomo  5238  WEEE-Reg. Nr. 4030  ENV/2023/000003417 EUR Bank account   BANCO SANTANDER  Número de cuenta 2710128819  Swiftcode BSCHESMM  IBAN: ES67 0049 1904 31 2710128819     USD Bank account   BANCO SANTANDER  Swiftcode BSCHESMM  IBAN: ES58 0049 1904 31 2710128690 JOFEG, S.A.  URBANIZACION PRADO DEL ESPINO  C/IMPRESORES, 22  ESQUINA C/CARRETEROS  28660 BOADILLA DEL MONTE En correspondencia indicar siempre Abono p.devoluciones 6830047093 Cliente 123736 Fecha 17.12.2025 Authorization Number 6820343640 Página 1 / 2 NIF / CIF / VAT ESA28346245 Doc 13072888 Albarán 84795154 Su pedido Abono S/Fact. 6820343640 Dirección de entrega JOFEG, S.A.  URBANIZACION PRADO DEL ESPINO  28660 BOADILLA DEL MONTE  ESPAÑA Pos Artículo Cantidad Precio Unidad Importe EUR 3 S00210000         1,00 UN EXPOSITOR 12 5241000 Precio neto       111,95 EUR 1 UN       111,95 Precio grupo B EAN 8414162006985 Precio neto       111,95 Valor neto EUR       111,95 IVA       21,00 %       111,95        23,51 Valor total 560 A DESTINO EUR       135,46 Condiciones de venta Via de pago Confirming Forma de pago Pago a 60 días Fecha de pago 20.12.2025 "Aplicadas nu</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>3077</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>SUPER EGO TOOLS S.A</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>40000625</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>100</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>11748200D, 46210101N, 46210102E, 46210130E, 46210131W, B95661609, E34946210, 46210130W, 46210133W, V20230000, A27101288, S67004919, S58004919, 10128690J, S68300470, A17122025, R68203436, C13072888, N84795154, 20343640D, S00210000, R12524100, N84141620, A21001119, 20122025A, E68300470, 10128690T</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>111,95</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>...Nº Identificación Fiscal : ES B95661609 SUPER EGO TOOLS, S.L.U.  Ctra...</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>P2 Kärcher su factura núm. 1531731878.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P2 Kärcher su factura núm. 1531731878.pdf</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:36</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>aacd3a744baa</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>A08749079</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lín. Referencia Descripción Cantidad piezas Precio Descuento Descuento Importe (EUR) (%) (EUR) (EUR) __________________________________________________________________________ ________ Número de envío  1522435298 (30.12.2025) 001  2.889-217.0 Bolsas filtrantes de 4 UN 11,52          0,0  0,00  46,08  PEÑA ARTEMIX Y LAMAR Envio de factura a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Solicitado por: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Facturado a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Entregado en: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Original Portes Base Imponible IVA % IVA Valor Total 16,00 62,08  21,00  13,04  75,12  (EUR) (EUR) (EUR) (EUR)                                                  KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid                           INSCRITA EN EL REG.MERC.DE MADRID, EN EL TOMO36854, FOLIO 137, Sección 8, HOJA M-659615, INSCRIP. 2                           Inscripción en el registro de productores de producto (sección envases) num. ENV/2023/000007681 según REAL                                                                  Decreto 1055/2022 de 27 de diciembre. REACH - Encontrará información actual sobre los ingredientes en: https://www.kaercher.com/es/inside-kaercher/sostenibilidad/responsabilidad-del-producto.html Número de factura Fecha 1531731878 07.01.2026 Número de pedido Solicitante 1512094556 1501303359 Núm. pedido cliente KIOS InfoNet Fecha de pedido 29.12.2025 Tipo de Transporte ES TTE. ESTANDAR Portes FH CPT Hasta Dest.Mercancía PAGADOS Condiciones de pago Hasta el 10.03.2026 sin deducción Pagaré a 60 días día 10 y 20 CIF / NIF Nº ESA28346245 Factura </t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>1798</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>KARCHER S.A</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>40008067</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>100</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>28892170B, N11520000, 13047512E, A08749079, E5628054M, V20230000, 10552022D, A15317318, 07012026N, E15120945, 01303359N, 29122025T, 10032026S</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>...       KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid...</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>P2426 VF2505695.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P2426 VF2505695.pdf</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:35</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6acd5003c132</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>A08052243</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>239,58</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FACTURA N.DOC :VF2505695 FECHA : 15/12/2025 AGENTE: 2300 TELÉFONO :916330298 FAX : CLIENTE :13247 NIF/CIF: A28346245 28660 BOADILLA DEL MONTE JOFEG, S.A. CP: URB.PRADO DEL ESPINO C/IMPRESORES,22 MADRID Cantidad Precio Imp. Base Descuento Código y Descripción artículo Su pedido Albarán: VAL2506340 20, 200, 10, K03012 / FILTRO GASOLEO ALUMINIO NO SERVIR PP22254 Dto. Financiero Impbrtfa Porcen Impporte Ivaincl Porcivap Dto. FinancierBase ImponibleImporte IRPFImporte I.V.Amp. Recargo Total Factura Importe bruto Dto. 1 Otros Dtos. 200,00 0,00 198,00 41,58 239,58€ 0,00 0,00 2,00 0,00 % DTOS.: 0,00 % 0,00 % 1,00 %  % FORMA PAGO: CCC: CONFIRMING N.PAGOS: 1 1erPAGO: 90 Fecha(s) Vto.: 21/03/2026 239,58€ Inscrita en el Registro Mercantil de Barcelona, Hoja 133, Folio 38, Tomo 424, Libro 29, Sección 2ª, C.i.F. A-08052243 Página 1 de 1 </t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>835</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>COM.VASCO CATALANA DEL COMB.SA</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>40000547</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
+        <v>100</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>F2505695F, A15122025, 16330298F, 02020010K, S20000000, 00200000D, S00000010, A08052243</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>... Libro 29, Sección 2ª, C.i.F. A-08052243 Página 1 de 1 ...</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>P2434 Kärcher su factura núm. 1531729480.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P2434 Kärcher su factura núm. 1531729480.pdf</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:35</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>cbe8658d943e</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>A08749079</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Lín. Referencia Descripción Cantidad piezas Precio Descuento Descuento Importe (EUR) (%) (EUR) (EUR) __________________________________________________________________________ ________ Número de envío  1522430139 (13.12.2025) 001  4.112-006.0 Lanza dosificadora T 1 UN 67,68          0,0  0,00  67,68  CAROLINA TARGET 615 90 60 82 002  4.118-005.0 EASY!Force Advanced  1 UN 85,68          0,0  0,00  85,68  CAROLINA TARGET 615 90 60 82 Número de pedido 1512089716 Fecha 12.12.2025 Núm. pedido cliente KIOS InfoNet 12.12.2025 003  9.530-803.0 Kit baterias (B 40)  2 UN 493,20          0,0  0,00  986,40  004  9.531-037.0 Bateria s/m 12V105Ah 4 UN 0,00          0,0  0,00  0,00  005  9.531-050.0 Puentes              2 UN 0,00          0,0  0,00  0,00  Envio de factura a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Solicitado por: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Facturado a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Entregado en: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Original Portes Base Imponible IVA % IVA Valor Total 0,00 1.139,76  21,00  239,35  1.379,11  (EUR) (EUR) (EUR) (EUR)                                                  KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid                           INSCRITA EN EL REG.MERC.DE MADRID, EN EL TOMO36854, FOLIO 137, Sección 8, HOJA M-659615, INSCRIP. 2                           Inscripción en el registro de productores de producto (sección envases) num. ENV/2023/000007681 según REAL                                                                  Decreto 1055/2022 de 27 de diciembre. REACH - Encontrará información actual sobre los ingredientes en: https://www.kaercher.com/es/inside-kaercher/sostenibilidad/responsabilidad-del-producto.html Número de factura Fecha 1531729480 19.12.2025 Número de pedido Solicitante 1512086663 1501303359 Núm. pedido cliente KIO</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>2232</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>KARCHER S.A</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>40008067</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>100</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>41120060L, N67680000, 41180050E, N85680000, 15906082N, 12089716F, A12122025, 95308030K, N49320000, 95310370B, N00000000, 95310500P, 35137911E, A08749079, E5628054M, V20230000, 10552022D, A15317294, 19122025N, E15120866, 01303359N, 03122025T, 20022026S</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>...       KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid...</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>P54_0916290447.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P54_0916290447.pdf</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:30</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3cc2681ce5a7</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>19/01/26</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916290447 Fecha documento 20.01.2026 Código distribuidor: 24291960 NIF ESA28346245 Página 1 / 3 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347535202 Fecha entrega: 20.01.2026            Nº pedido: 211278228 Fecha pedido: 09.01.2026            Nº pedido cliente: OOOO-TIERRA ING             5 ,6  y 17  TIERRA ING. ISMAEL ASENJO    500 2 3639-000-0074 Cadena cortada 45 R .325" RS  jordy metro ligero    23,47 1 UDS -31,00 32,39 R3 El(los) siguiente envío(s) ha (han) sido entregado(s) a 24291960:       Entrega: 347538904 Fecha entrega: 20.01.2026            Nº pedido: 211323863 Fecha pedido: 20.01.2026            Nº pedido cliente: OOOO-TIERRA ING             TIERRA ING. DESDE LA POSICION 11 A 17             ISMAEL ASENJO                Tu pedido 19/01/26    1200 1 4244-011-2600 SR 430  tierra*  Nº de serie:  374385280    602,48 1 UDS -33,00 403,66 R3 1300 4 4180-200-0589 KM 131 R  tierra  495,04 1 UDS -33,00 1.326,71 R3 Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916290447 Fecha documento 20.01.2026 Código distribuidor: 24291960 Página 2 / 3 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>3394</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>100</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16290447F, 20012026C, R24291960, A24291960, A34753520, A20012026, 11278228F, 09012026N, 90000074C, S31003239, A34753890, 11323863F, 20012026N, 40112600S, E37438528, S33004036, R31300441, 02000589K, S33001326, 18879801N, E54731685, 17405000B, S35001740, R31500146, 40115401M, E54633006, S33003372, R31600146, 17404602C, S35001176, R31700146, 10071008C, S35003169, 02698104E, 02698108E, D1102015F, D7102015C</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>52,974</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>P55_3026102099.PDF</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P55_3026102099.PDF</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:28</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9739cadaeaee</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>A08147191</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>JOFEG</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>45.146</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FACTURA  JOFEG S.A.  C.IMPRESORES,22  28660 BOADILLA DEL MONTE  Madrid Nº DOCUMENTO FECHA DOC. NºCLIENTE CADENA/SOCIO NºPROVEEDOR CLIENTE NIF CLIENTE HOJA -/- 3026102099 F.R.O.: 20.01.2026 20.01.2026 15287             EHLIS-26953 A28346245  1 /1 REMITIDO A Nº ALBARAN Nº PEDIDO CLIENTE Nº COPIAS  JOFEG S.A.  C/IMPRESORES S/N-URB.PRADO DEL ESPINO            28660 BOADILLA DEL MONTE 301318947 5739284 01 1 CODIGO ARTICULO/CONCEPTO CANTIDAD UNIT PRECIO U. CONDICIONES COMERCIALES IMPORTE NETO 901616   CEYS TAMICES TACO QUÍMICO 9X50MM 8U       12    5,72 30,00-%+14,00-%       41,32 Subtotal         41,32  Dto Cliente %   2,00-%  -0,83              Según la legislación vigente el poseedor final de los residuos de envases comerciales e industriales es el responsable de su correcta gestión. Registro productores de producto: REGAGE25e00030343978. PT.V/ENVA   0,11 € BASE % IVA/IGIC CUOTA      40,49  21,00        8,50 TOTAL DOCUMENTO        48,99 EUR   VIA DE PAGO Y VENCIMIENTO           IMPORTE  Reposiciones A 60 DIAS COBRO DIAS 11 Y 21     21.03.2026                                                                                                                               BANCO: NºCTA. Registro Mercantil de Barcelona, Tomo 22.904, Folio 20, Hoja B-45.146, NIF. A-08147191 </t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>1283</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>AC MARCA ADHESIVES, S.A.U.</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>40000778</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
+        <v>100</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>S2228660B, A30261020, 02615287E, E30131894, 39284011C, U12572300, 14004132S, E00030343, A40492100, 21032026B, A08147191</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>41,32</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>40,49</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>...Folio 20, Hoja B-45.146, NIF. A-08147191 ...</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>P56_Factura_5060626424_20260121.PDF</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P56_Factura_5060626424_20260121.PDF</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:26</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>435a4c4b2208</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>B84072032</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Factura n° 5060626424</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>21.01.2026</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura n° 5060626424 Página 1 / 1 Fecha 21.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente PEDIDO_TEL_ALFREDO_1 Fecha de pedido cliente 12.01.2026 Confirmación de pedido n° 0053384851 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4933498148 M18ALIS-0 LAMPARA DE 1 U.    107,90 / 1  ACUM. XXX 85131000 4058546513085 0,500 KG CN Precio 107,90 Dto. Base 25% -26,98 Precio neto 80,92 Nota de Entrega n° 0103437039 fecha 20.01.2026, Ref. del ped. cliente PEDIDO_TEL_ALFREDO_12012026 fech Total antes impuestos EUR 80,92 IVA 21% EUR 16,99 Total IVA incl. EUR 97,91 Condiciones de pago 30 días fecha factura Incoterms DAP BOHADILLA DEL MONTE Fecha de vencimiento: 21.02.2026  </t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>1420</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>40001020</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
+        <v>100</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>N50606264, A21012026, E04000540, E12012026, N00533848, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, 30850500K, N01034370, A20012026, 12012026F</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>80,92</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>P59_0916298016.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P59_0916298016.pdf</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:25</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>504703724ff1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>A28940740</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>19/01/26</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>111,69</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 Jofeg, S.A.  P.E. Prado del Espino-C/ Impresores  28660 Boadilla del Monte N° Documento 916298016 Fecha documento 21.01.2026 Nº albarán: 347542066 Fecha entrega: 21.01.2026 Nº pedido: 211323863 Fecha pedido: 20.01.2026 Código distribuidor: 24291960 Nº pedido cliente: OOOO-TIERRA ING NIF ESA28346245 Página 1 / 2 TIERRA ING. DESDE LA POSICION 11 A 17  ISMAEL ASENJO     Tu pedido 19/01/26 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA 100 1 4180-180-1150 Cable de acelerador  adrian jotrinsa    22,81 1 UDS -31,00 15,74 R3 200 2 4180-790-4700 Kit Sistema AV  adrian jotrinsa    13,58 1 UDS -31,00 18,74 R3 300 1 4180-790-7205 Casquillo  adrian jotrinsa    1,81 1 UDS -31,00 1,25 R3 400 1 4180-790-7200 Casquillo  adrian jotrinsa    2,06 1 UDS -31,00 1,42 R3 500 2 4180-007-1060 Juego piezas carburador  adrian jotrinsa    27,41 1 UDS -31,00 37,83 R3 600 2 4180-141-8601 Tubo flexible  2,23 1 UDS -31,00 3,08 R3 Factura Andreas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV  C/Londres n° 20  Inscrita en el Registro Mercantil de Madrid   IBAN ES7614659000160001941209  28813 Torres de la Alameda  n° 3 Tomo 157 General 138,sección3a          Swift BBRUESMXXXX  (Madrid)  folio 96 Hoja 62240-3,Inscripción 1a  Teléfono: (+34) 91 887 98 01 N° Documento 916298016 Fecha documento 21.01.2026 Código distribuidor: 24291960 Página 2 / 2 Ref. Cant. UDS Referencia Descripción Precio Unitario Unid. Total DTO. % Precio Neto I VA adrian jotrinsa    700 1 4244-710-9005 Cinturón de porte  adrian jotrinsa    20,28 1 UDS -31,00 14,00 R3 800 2 4283-190-4023 Mecanismo de arranque  HECTRO URIARTE 6437703</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>2767</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>ANDREAS STIHL, S.A.</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>40000600</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
+        <v>100</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>A28940740, S76146590, 20928813T, 18879801J, 16298016F, 21012026N, N34754206, A21012026, 11323863F, 20012026C, R24291960, A10014180, S31001574, R32002418, 07904700K, S31001874, R33001418, 07907205C, S3100125R, 07907200C, S3100142R, 00071060J, S31003783, R36002418, 01418601T, S3100308R, 18879801N, 21012026C, A70014244, S31001400, R38002428, 31904023M, E64377033, S31001676, R39001000, 41404413F, A67977209, S31001120, R31000195, 30039642R, N6256082R, S60917775, S3100599R, 02611168E, 02611169E, D1102015C, D7102015C</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2,093</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>...eas Stihl S.A.  N.I.F./V/A/T.:A28940740                   ING BANK NV...</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>P60_Factura_5060626894_20260122.PDF</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P60_Factura_5060626894_20260122.PDF</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:24</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7b710e1d8c02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>B84072032</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Factura n° 5060626894</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>22.01.2026</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura n° 5060626894 Página 1 / 1 Fecha 22.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente 17sep25 JOFEG Fecha de pedido cliente 17.09.2025 Confirmación de pedido n° 0052782239 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4932479818 CUCHILLA CORTACÉSPED 2 U.     30,00 / 1  53CM 82084000 4058546376123 1,528 KG CN Precio 60,00 Dto. Base 50% -30,00 Precio neto 30,00 Nota de Entrega n° 0103443633 fecha 21.01.2026, Ref. del ped. cliente 17sep25 JOFEG fecha 17.09.2025 Total antes impuestos EUR 30,00 Dto. en cabecera 3% EUR -0,90 Neto antes impuestos EUR 29,10 IVA 21% EUR 6,11 Total IVA incl. EUR 35,21 Condiciones de pago 30 días fecha factura Incoterms DAP BOHADILLA DEL MONTE Fecha de vencimiento: 22.02.2026  </t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>1465</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>40001020</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
+        <v>100</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>N50606268, A22012026, E04000540, E17092025, N00527822, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493247, U3000153C, 61231528K, N01034436, A21012026, A17092025</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>30,00</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>P63_Kärcher su factura núm. 1580275219.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P63_Kärcher su factura núm. 1580275219.pdf</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:20</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0611886ad796</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>A08749079</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lín. Referencia Descripción Cantidad piezas Precio Descuento Descuento Importe (EUR) (%) (EUR) (EUR) __________________________________________________________________________ ________ Número de envío  1522442699 (21.01.2026) 001  6.646-140.0 Clavija de enchufe d 1 UN 7,20          0,0  0,00  7,20  jotrinsa Envio de factura a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Solicitado por: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Facturado a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Entregado en: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Original Portes Base Imponible IVA % IVA Valor Total 32,00 39,20  21,00  8,23  47,43  (EUR) (EUR) (EUR) (EUR)                                                  KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid                           INSCRITA EN EL REG.MERC.DE MADRID, EN EL TOMO36854, FOLIO 137, Sección 8, HOJA M-659615, INSCRIP. 2                           Inscripción en el registro de productores de producto (sección envases) num. ENV/2023/000007681 según REAL                                                                  Decreto 1055/2022 de 27 de diciembre. REACH - Encontrará información actual sobre los ingredientes en: https://www.kaercher.com/es/inside-kaercher/sostenibilidad/responsabilidad-del-producto.html Número de factura Fecha 1580275219 23.01.2026 Número de pedido Solicitante 1512102183 1501303359 Núm. pedido cliente KIOS InfoNet Fecha de pedido 21.01.2026 Tipo de Transporte ES TRAMITE URGENTE Portes FH CPT Hasta Dest.Mercancía PAGADOS Condiciones de pago Hasta el 10.04.2026 sin deducción Pagaré a 60 días día 10 y 20 CIF / NIF Nº ESA28346245 Factura simplificada </t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>1798</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>KARCHER S.A</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>40008067</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S63" t="n">
+        <v>100</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>66461400C, N72000000, 08234743E, A08749079, E5628054M, V20230000, 10552022D, A15802752, 23012026N, E15121021, 01303359N, 21012026T, 10042026S</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>...       KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid...</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>P64_Kärcher su factura núm. 1531735795.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P64_Kärcher su factura núm. 1531735795.pdf</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:18</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2ad3daffeca2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>A08749079</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONTACTO: JUAN ERNESTO RICO: 617655253 Lín. Referencia Descripción Cantidad piezas Precio Descuento Descuento Importe (EUR) (%) (EUR) (EUR) __________________________________________________________________________ ________ Número de envío  1522443607 (23.01.2026) 001  1.286-970.0 HD 10/25-4 S *KAP    1 UN 2.108,20          0,0  0,00  2.108,20  Número de serie: ( 12576 )                                                                                            002  9.530-040.0 TRAMITE / GESTION EN 1 UN 23,00          0,0  0,00  23,00  Envio de factura a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Solicitado por: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Facturado a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Entregado en: ALMACEN LANDTRANS GLI ATT. JUAN ERNESTO RICO TELF. 617655 RONDA DEL PORT 488 08039 BARCELONA Original Portes Base Imponible IVA % IVA Valor Total 0,00 2.131,20  21,00  447,55  2.578,75  (EUR) (EUR) (EUR) (EUR)                                                  KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid                           INSCRITA EN EL REG.MERC.DE MADRID, EN EL TOMO36854, FOLIO 137, Sección 8, HOJA M-659615, INSCRIP. 2                           Inscripción en el registro de productores de producto (sección envases) num. ENV/2023/000007681 según REAL                                                                  Decreto 1055/2022 de 27 de diciembre. REACH - Encontrará información actual sobre los ingredientes en: https://www.kaercher.com/es/inside-kaercher/sostenibilidad/responsabilidad-del-producto.html Número de factura Fecha 1531735795 23.01.2026 Número de pedido Solicitante 1512102816 1501303359 Núm. pedido cliente OFERTA ES2 266633 Fecha de pedido 22.01.2026 Tipo de Transporte ES TTE. ESTANDAR Portes FH CPT Hasta Dest.Mercancía PAGADOS Condiciones de pago Hasta el 10.04.2026 sin deducción Pagaré a 60 días día </t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>2041</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>KARCHER S.A</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>40008067</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
+        <v>100</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>17655253L, 12869700H, N21082000, 00210820N, E12576002, 95300400T, N23000000, 48808039B, 55257875E, A08749079, E5628054M, V20230000, 10552022D, A15317357, 23012026N, E15121028, 01303359N, S2266633F, 22012026T, 10042026S</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>...       KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid...</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>P65_Kärcher su factura núm. 1580275395.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P65_Kärcher su factura núm. 1580275395.pdf</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:14</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>81c828cedd4b</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>A08749079</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lín. Referencia Descripción Cantidad piezas Precio Descuento Descuento Importe (EUR) (%) (EUR) (EUR) __________________________________________________________________________ ________ Número de envío  1522444063 (23.01.2026) 001  9.530-101.0 CUOTA INFONET        1 UN 80,00          0,0  0,00  80,00  Envio de factura a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Solicitado por: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Facturado a: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Entregado en: JOFEG, S.A. P.I. PRADO ESPINO Impresores, 22 - Parc 3 28660 BOADILLA DEL MONTE Original Portes Base Imponible IVA % IVA Valor Total 0,00 80,00  21,00  16,80  96,80  (EUR) (EUR) (EUR) (EUR)                                                  KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid                           INSCRITA EN EL REG.MERC.DE MADRID, EN EL TOMO36854, FOLIO 137, Sección 8, HOJA M-659615, INSCRIP. 2                           Inscripción en el registro de productores de producto (sección envases) num. ENV/2023/000007681 según REAL                                                                  Decreto 1055/2022 de 27 de diciembre. REACH - Encontrará información actual sobre los ingredientes en: https://www.kaercher.com/es/inside-kaercher/sostenibilidad/responsabilidad-del-producto.html Número de factura Fecha 1580275395 23.01.2026 Número de pedido Solicitante 1512103416 1501303359 Núm. pedido cliente Cuota InfoNet 2026 Fecha de pedido 23.01.2026 Tipo de Transporte ES TTE. ESTANDAR Portes FH CPT Hasta Dest.Mercancía PAGADOS Condiciones de pago Hasta el 10.04.2026 sin deducción Pagaré a 60 días día 10 y 20 CIF / NIF Nº ESA28346245 Factura simplificada </t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>1795</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>KARCHER S.A</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>40008067</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>100</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>95301010C, N80000000, 16809680E, A08749079, E5628054M, V20230000, 10552022D, A15802753, 23012026N, E15121034, 01303359N, 23012026T, 10042026S</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>...       KARCHER, S.A. - C.I.F. A-08749079 c/ Aguacate 56 - 28054 Madrid...</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>P67_Factura 9814032906.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P67_Factura 9814032906.pdf</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:46:11</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4a85164d87af</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>B82900721</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>17/01/07</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>233,19</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Ariston Ibérica SLU Inscrita en el Registro Mercantil de Ariston Ibérica SLU    Camí de Can Ametller, 12-18  Barcelona, Tomo 39191, Folio 0175 Sociedad Unipersonal     Edificio 1, Planta 2  Hoja n.° B-341031, Inscripción 18.ª     08195 Sant Cugat del Vallès     ESPANA en 17/01/07 - N.I.F. B-82900721     Tel.93 495 19 00 www.aristongroup.com Factura Nr. : 17002193 / 26 fecha  23/01/2026        Pag. 1  /   2 Ref. Comerc. Nr. 9814032906 Cliente : 61000210 JOFEG, S.A.  DOÑA BERENGUELA, 3  28011 MADRID  ESPAÑA NIF : ESA28346245 Destinatario Factura :  72009737 JOFEG, S.A.  URB. PRADO DEL ESPINO C/ IMPRESORES 22  28660 BOADILLA DEL MONTE (MADRID)  ESPAÑA Condiciones Entrega : DDU FRANCO DESTINO Agente : SEDE MTS  Código : 12000097 Banco : CAIXABANK, S.A. -   c/c 0200002956 Entidad  21002  Oficina 025   Condiciones de Pago : Pagos certificados -  70 D. F.F.DÍAS 5 Y 20 (*) Fecha vencimiento : 05.04.2026 Importe           :          233.19 Volumen                0,10  M3   Peso Bruto                16,00KG  Peso Neto                  15,00 KG  Albarán n° Ped. Código Descripción artículo Cant. Unit.  Precio unit.Dstos   Precio neto Total Ped.   Cliente Med. EUR  EUR 8007993208 PP/22374 870   MED ENAMELLED EL. WATER HEATER (WHE_MEN) 23/01/2026 13283229 3201678 FLECK BON 25 EU2                1,0 PZ      425,00 54,65%      192,72         192,72  Mercancía para enviar a :  JOFEG S.A (BOADILLA DEL MONTE)  IMPRESORES 22  28660 BOADILLA DEL MONTE (MADRID)  ESPAÑA        TOTAL PRODUCTOS EUR            192,72  BASE IMPONIBLE EUR            192,72  IVA ventas              21 %            192,72              40,47  TOTAL FACTURA EUR            233,19  Número de Registro RII-RAEE: 2950 Número de Registro RII-PYA: 1578 ENV/2023/000016929 Ariston Ibérica participa en un SCRAP de envases y embalajes costeando los materiales de envases de acuerdo a las tarifas del SCRAP /AT    Ariston Ibérica SLU Inscrita en el Registro Mercantil de Ariston Ibérica SLU    Camí de Can Ametller, 12-18  Bar</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>2448</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>ARISTON IBERICA, S.L.U.</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>40000309</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
+        <v>100</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>N1808195S, B82900721, 34951900W, R17002193, A23012026, R98140329, E61000210, A72009737, S2228660B, 12000097B, C02000029, R80079932, P22374870, N23012026, 93201678F, 27219272M, S21192724, V20230000</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>...  ESPANA en 17/01/07 - N.I.F. B-82900721     Tel.93 495 19 00 www.aris...</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>P69_Factura_5060627634_20260123.PDF</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\P69_Factura_5060627634_20260123.PDF</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:43:11</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>96efe4aced77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>B84072032</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Factura n° 5060627634</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>23.01.2026</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Factura n° 5060627634 Página 1 / 1 Fecha 23.01.2026 Numero Cliente 0400054055 CIF Cliente ESA28346245 Numero/Ref. del pedido cliente FOLLETO Q1 2026 Fecha de pedido cliente 12.01.2026 Confirmación de pedido n° 0053385824 Contacto TTI MARIVI LOPEZ Techtronic Industries Iberia S.L Techtronic Industries Iberia S.L, Av. Fuentemar 20, 1º 5, Coslada, 28823-MADRID Dirección de Facturación JOFEG S.A.  PARQUE EMPRESARIAL PRADO ESPINO  CL IMPRESORES 22  E-28660 BOADILLA DEL MONTE Techtronic Industries Iberia, SL Avenida Fuentemar 20, 1º 5, Coslada, 28823-Madrid. – Tel : 91 627 92 28 – Fax : 91 627 91 86/7  Registro Mercantil de Madrid, Tomo 20.390, Folio 133, Hoja: M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : 526  N° Reg. Env.: ENV/2023/000001366     IBAN : ES6801822324690201508137 BIC/SWIFT : BBVAESMMXXX  Ver condiciones generales de venta al dorso Pos. Ref. TTI Designación Cdad/U. Precio/U. Importe Código mercanc.EAN Peso EUR Ref. Cliente     10 4939796815 Milw. Promo Leaflet 3 U.      0,01 / 1 26 (25pcs) [ES] 49111090 4058546579371 11,769 KG LT Precio 0,03 Descuento Espec. 100% -0,03 Precio neto 0,00 Nota de Entrega n° 0103454343 fecha 22.01.2026, Ref. del ped. cliente FOLLETO Q1 2026 fecha 12.01.2026 Neto antes impuestos EUR 0,10 IVA 21% EUR 0,02 Total IVA incl. EUR 0,12 Condiciones de pago 30 días fecha factura Incoterms DAP BOHADILLA DEL MONTE Fecha de vencimiento: 23.02.2026  </t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>1420</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>TECHTRONIC INDUSTRIES IBERIA</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>40001020</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S67" t="n">
+        <v>100</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>N50606276, A23012026, E04000540, E12012026, N00533858, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493979, U00112625, S49111090, 37111769K, N01034543, A22012026, A12012026</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>...M-360651 Inscripcion 1a CIF : B84072032  N° RII-AEE: 27 N° RII-PYA : ...</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>VA2600020.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\VA2600020.pdf</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:25:16</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2e4b177ccc9a</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>A08052243</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Importe</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>29/01/2026</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>239,58</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABONO N.DOC :VA2600020 FECHA : 29/01/2026 AGENTE: 2300 TELÉFONO :916330298 FAX : CLIENTE :13247 NIF/CIF: A28346245 28660 BOADILLA DEL MONTE JOFEG, S.A. CP: URB.PRADO DEL ESPINO C/IMPRESORES,22 MADRID Cantidad Precio Imp. Base Descuento Código y Descripción artículo Su pedido Albarán: VD2600021 REF. FRA. VF2505695 20, 200, 10, K03012 / FILTRO GASOLEO ALUMINIO TAMIZ 1/2" + ALUMINIO Dto. Financiero Impbrtfa Porcen Impporte Ivaincl Porcivap Dto. FinancierBase ImponibleImporte IRPFImporte I.V.Amp. Recargo Total Factura Importe bruto Dto. 1 Otros Dtos. 200,00 0,00 198,00 41,58 239,58€ 0,00 0,00 2,00 0,00 % DTOS.: 0,00 % 0,00 % 1,00 %  % FORMA PAGO: CCC: ABONO N.PAGOS: 1 1erPAGO: 1 Fecha(s) Vto.: 11/02/2026 -239,58€ Inscrita en el Registro Mercantil de Barcelona, Hoja 133, Folio 38, Tomo 424, Libro 29, Sección 2ª, C.i.F. A-08052243 Página 1 de 1 </t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>851</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>COM.VASCO CATALANA DEL COMB.SA</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>40000547</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
+        <v>100</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>A2600020F, A29012026, 16330298F, D2600021R, F25056952, S20000000, 00200000D, S00000010, A08052243</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>... Libro 29, Sección 2ª, C.i.F. A-08052243 Página 1 de 1 ...</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Factura 26000149.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura 26000149.pdf</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2026-02-02T09:12:34</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6b76e5fdf2e8</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>OK (Proveedor no en ERP)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>B86391679</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>26000149</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>37,95</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FACTURA TOTAL FACTURA 37,95 I.V.A. 3,45 % 10,00 BASE IMPONIBLE 34,50 Forma de Pago: Orden adeudo SEPA a la vista 01/02/2026 37,95 €                                                                  Albarán Descripción Cantidad  Total  Dto. Precio Referencia 26000149 31/01/2026 Fecha: FACTURA 1 Pagina Registro mercantil de Madrid Tomo 29.716, Folio 28, Hoja M-534644, Inscripción 1ª   Cif.: B86391679 CUOTAMES30 Cuota Mensual Servicio Semestral 1 34,50 34,500 2026000356 -34.50â‚¬- Agente: C/IMPRESORES, 22 BOADILLA DEL MONTE MADRID JOFEG SA 28660 43004040 Cod. Cliente: A28346245 JOFEG SA C/IMPRESORES, 22 28660  BOADILLA DEL MONTE   MADRID DOMINICA GARCIA ROMANILLOS S.L. C/ Puerto del Ponton, 1 Leganes 913419034 </t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>716</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="S69" t="n">
         <v>0</v>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>N50606293, A29012026, E04000540, E27012026, N00534675, 16279228F, 62791867R, B84072032, V20230000, S68018223, 01508137B, E10493349, 96513580K, E2520745P, N01034941, A28012026, A27012026, 32430483M, U11490188, 14491560K, C10017235, 32471417G, R61161020, 04500136K, E40493247, S68042218, 28050778K, 32493433L, C90049010, 30430194K, 33459729M, 90125380K, 33440493M, 03579080K, E2511795P, 33500564M, 86674202K, E90493347, 87912752K, 33492821M, 69223460K, 33472238M, 63402100K, 33433630A, 42316248K, 33451220A, 08746558K, E14049324, 14492340K, C10025852, 49560062C, 29770080K, 49560159C, 10300660K, 32471104B, 73200102K, 32471107B, 73510230K, 32493871M, A82075090, 03121134K, 32352346B, S82075060, 00540020K, 32352347B, 00610030K, 32352348B, 00780030K, E23049323, 00850040K, 32352350B, 00920020K, 32352351B, 01080039K, 32352352B, 01150032K, 32352358B, 01770080K, 32352361B, 02070060K, 32352363B, 02210160K, 32352367B, U6901100X, 02690335K, 32352371B, U10801120, 03060404K, E32049323, U11301130, 03200212K, 32480177C, 46280800K, 32492005E, E82079030, 37291320K, 32492007E, 37432250K, E5510115D, 32471781D, 68030666K, 32471773D, 67280324K, 32471787D, 68650324K, 32343735S, 75162160K, 32339626S, 48200996K, 32367146S, 43770558K, 49472211J, E82029980, 19580680K</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>622,35</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>A3451000B, A01022026, A26000149, 31012026F, B86391679, 03563450A, A28660430, S2228660B, S91341903</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>34,50</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>...34644, Inscripción 1ª   Cif.: B86391679 CUOTAMES30 Cuota Mensual Serv...</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>TEMPLATE</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Factura INV2600905.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura INV2600905.pdf</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2026-02-05T18:22:19</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5130c4b5caa1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NO_MATCH</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>46206015R</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>INV2600905</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>05.02</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pos. Artículo Descripcion Unidades Precio Dto. (%) Dto. (%) Dto. (%) Precio neto 1 04.620.60.15 RD 15 MM ABRAZADERA (COBRE) 20 9,24 48 12 84,56 2 04.620.60.18 RD 18 MM ABRAZADERA (COBRE) 20 9,55 48 12 87,40 3 04.620.60.22 RD 22 MM ABRAZADERA (COBRE) 15 11,90 48 12 81,68 4 04.620.60.28 RD 28 MM ABRAZADERA (COBRE) 20 15,32 48 12 140,21 5 04.620.60.35 RD 35 MM ABRAZADERA (COBRE) 20 25,05 48 12 229,26 6 04.620.60.42 RD 42 MM ABRAZADERA (COBRE) 10 33,98 48 12 155,49 7 04.620.60.54 RD 54 MM ABRAZADERA (COBRE) 10 41,17 48 12 188,39 8 01.150.01.00 I 3/8'' TERMINAL ROSCA HEMBRA (ACERO)        30 11,43 48 12 156,91 9 01.150.00.04 A 1 1/4'' TERMINAL ROSCA MACHO  (ACERO) 5 20,01 48 12 45,78 10 01.150.00.06 A 2" TERMINAL ROSCA MACHO (ACERO) 3 34,09 48 12 46,80 Imp. Neto total 1.216,48 Importe total sin IVA 1.216,48 IVA 21% 255,46 Importe TOTAL EUR 1.471,94 GEBO IBERICA S.A.U. · C/DEL GUIX 3 · PI MASIA D'EN BARRERES  08800 VILANOVA I LA GELTRU JOFEG SA C/ IMPRESORES, 22  P.I. PRADO DEL ESPINO 28660 BOADILLA DEL MONTE MADRID España CIF cliente A28346245 Divisa: EUR Dirección envío JOFEG SA C/ IMPRESORES, 22  P.I. PRADO DEL ESPINO 28660 BOADILLA DEL MONTE MADRID España Forma envío DHL Condiciones entrega DAP Portes pagados Condiciones de pago MANUAL 60 dias Vencimiento 06.04.2026 FACTURA INV2600905 Fecha factura 05.02.2026 No. Cliente. CES00179 No. documento externo PP/22422 No. Pedido. SO2600813 Albarán No. SSH2601088 Página 1 de 1 </t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>1441</v>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>46206015R, E20924481, 46206018R, E20955481, 46206022R, E15119048, 46206028R, E20153248, 46206035R, E20250548, 46206042R, E10339848, 46206054R, E10411748, 11500004A, 11500006A, A2125546I, 06042026F, V2600905F, A05022026, H2601088P</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>1.216,48</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>.... (%) Dto. (%) Precio neto 1 04.620.60.15 RD 15 MM ABRAZADERA (COBRE) 20 ...</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
         <is>
           <t>REGEX</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Factura_1_260435.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>X:\Facts_Proveedor\Factura_1_260435.pdf</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2026-02-05T12:27:21</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>93ec0b6b21d8</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NO_MATCH</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>A00112304</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>FACTURA 	  ++                	 	 	 + ++   + 	+    !!"   ## !!"  $% 	 !&amp;'&amp;()*  ! "#$ $ %$&amp;$ + '()*+%*+#  , ++ +-'&amp;*&amp;. 	   //0 !/0  %  1$! -. 1$      "#$ $ %$&amp;$ + '()*+%*+#  , ++ +-'&amp;*&amp;.    	 +  2'*3!/0&amp;45'6&amp;&amp;%  !7!!!8!/8/!  !7!8!00 / 9*'!!!0'()'&amp;' %*+  ,6%+0!: $ %%%% %## %$# !  %  +  % ,"%% %%% %%% % %% #  -  . #/$ #  %%% %%% $ %%%% % % %$  !  %  +  % ,"%% $ %% %%%  $ $#%% #% # !  -	 $  + % "# %%% %%% # %%% #% # !  -	 $  + # "# %%% %%% $$ $%%%% %%#$ $ !  $  + # ,"%% %%% %%% $$ #%%%% %$  % !  %  + # ,"%% %%% %%% $ #%%%% %  $% !  %  +  ,"%% %%% %%% $ #%%%% %## $# !  %  +  % ,"%% %%% %%% $# %%%% %%% $%%% !  %  + $ ,"#% %%% %%%  #%%%% % $  % ! %  %  +  % ,"%% + %%% %%% $ %%%% %$ % ##$ ! %  %  +  # ,"%% + %%% %%% % %%%% %## $# ! %  %  +   ,"%% + %%% %%% % %%%% ### ### ! %  %  +  #% ,"#% + %%% %%% % $%% #   -  . #/$ #  %%% %%%  %%% #%%% $#%% -  . #/$ %%  %%% %%% OPERACIÓN ASEGURADA en Crédito</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>2483</v>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>A00112304, V20230000, S01231080</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>REGEX</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
